--- a/3_output/reactome_sig.xlsx
+++ b/3_output/reactome_sig.xlsx
@@ -362,48 +362,50 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>GeneRatio</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pvalue</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>p.adjust</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>logFDR</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>qvalue</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>geneID</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Count</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>GeneRatio</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pvalue</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>p.adjust</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>logFDR</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>qvalue</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>geneID</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>56</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Neuronal System</t>
+        </is>
       </c>
       <c r="B2">
         <v>0.1744548286604361</v>
@@ -422,18 +424,18 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Neuronal System</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
           <t>Kcnk3/Kcnb2/Syn2/Slc1a3/Kcnj3/Gria4/Kcna6/Kcnd2/Ptprd/Kcnd3/Nlgn1/Epb41l3/Abat/Lrrc7/Gnai1/Lrrc4b/Kcnq5/Grin2b/Adcy3/Shank2/Maoa/Gngt2/Plcb1/Ppfia2/Slitrk3/Rps6ka2/Glrb/Ppfia4/Adcy4/Adcy7/Gabra4/Dlg2/Gng11/Lin7a/Nlgn3/Tspan7/Kcnma1/Gjc1/Gng2/Kcnc4/Plcb2/Slc38a1/Lrfn2/Dlg4/Kcng4/Gnb5/Arhgef9/Gnb4/Gabbr1/Kcnq4/Cacna1a/Cacnb4/Prkar1b/Kcnh1/Camk1/Nlgn2</t>
         </is>
       </c>
+      <c r="H2">
+        <v>56</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3">
-        <v>44</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Extracellular matrix organization</t>
+        </is>
       </c>
       <c r="B3">
         <v>0.1904761904761905</v>
@@ -452,18 +454,18 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Extracellular matrix organization</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
           <t>Col11a1/Mmp16/Col26a1/Itga4/P3h3/Col14a1/Capn6/Ddr2/Col4a6/Cd44/Lama4/Col16a1/Itgb7/Fn1/Mmp2/Icam1/Nid1/Jam3/Itga1/Col13a1/Loxl3/Itgal/Emilin1/Pecam1/Col5a2/Ltbp3/Mmp19/Bgn/Col15a1/P3h1/Adam19/Efemp2/Crtap/Col23a1/Col18a1/Itga8/Itgb4/Tmprss6/Lum/Nid2/Bmp7/Jam2/Fbln5/Col4a5</t>
         </is>
       </c>
+      <c r="H3">
+        <v>44</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4">
-        <v>71</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Hemostasis</t>
+        </is>
       </c>
       <c r="B4">
         <v>0.1451942740286299</v>
@@ -482,18 +484,18 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hemostasis</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
           <t>Apob/Hgf/Angpt1/Itga4/Cd109/Igf1/Tfpi/Slc8a1/Nos3/Cd44/Pcdh7/P2rx2/Gnai1/Fn1/Pde1b/Serpine2/Jam3/Tek/Gngt2/Pik3r6/Dock2/Rasgrp2/Slc8a3/Trpc6/Sh2b2/Kif26a/Dock10/Maged2/Islr/Procr/Gng11/Itgal/Esam/Dgkb/Tubb4a/Vegfc/Pde1a/Sele/Pecam1/Kif6/Igf2/Gng2/Pros1/Arrb1/Sccpdh/Arrb2/Fyn/Pde5a/Cd84/Tor4a/Fgr/Habp4/Atp2b4/Gnb5/Fam3c/Selenop/Gnb4/Apbb1ip/Sri/Lat/Vps45/Kif16b/Spn/Lcp2/Pafah2/Lhfpl2/F2r/Prkar1b/Kif5a/Plek/Jam2</t>
         </is>
       </c>
+      <c r="H4">
+        <v>71</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5">
-        <v>19</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Platelet homeostasis</t>
+        </is>
       </c>
       <c r="B5">
         <v>0.2676056338028169</v>
@@ -512,18 +514,18 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Platelet homeostasis</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
           <t>Apob/Slc8a1/Nos3/P2rx2/Pde1b/Gngt2/Slc8a3/Trpc6/Gng11/Pde1a/Pecam1/Gng2/Pde5a/Fgr/Atp2b4/Gnb5/Gnb4/Sri/Pafah2</t>
         </is>
       </c>
+      <c r="H5">
+        <v>19</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6">
-        <v>18</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Integrin cell surface interactions</t>
+        </is>
       </c>
       <c r="B6">
         <v>0.2727272727272727</v>
@@ -542,18 +544,19 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Integrin cell surface interactions</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
           <t>Itga4/Col4a6/Cd44/Col16a1/Itgb7/Fn1/Icam1/Jam3/Itga1/Col13a1/Itgal/Pecam1/Col5a2/Col18a1/Itga8/Lum/Jam2/Col4a5</t>
         </is>
       </c>
+      <c r="H6">
+        <v>18</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7">
-        <v>35</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Transmission across Chemical
+Synapses</t>
+        </is>
       </c>
       <c r="B7">
         <v>0.1758793969849246</v>
@@ -572,19 +575,19 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Transmission across Chemical
-Synapses</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
           <t>Syn2/Slc1a3/Kcnj3/Gria4/Abat/Lrrc7/Gnai1/Grin2b/Adcy3/Maoa/Gngt2/Plcb1/Ppfia2/Rps6ka2/Glrb/Ppfia4/Adcy4/Adcy7/Gabra4/Dlg2/Gng11/Lin7a/Tspan7/Gng2/Plcb2/Slc38a1/Dlg4/Gnb5/Arhgef9/Gnb4/Gabbr1/Cacna1a/Cacnb4/Prkar1b/Camk1</t>
         </is>
       </c>
+      <c r="H7">
+        <v>35</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8">
-        <v>12</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>O-glycosylation of TSR
+domain-containing proteins</t>
+        </is>
       </c>
       <c r="B8">
         <v>0.3636363636363636</v>
@@ -603,19 +606,18 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>O-glycosylation of TSR
-domain-containing proteins</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
           <t>Adamts20/Sema5b/Adamts16/Adamts19/Thsd7b/Thsd1/Adamts1/Adamts10/Adamts7/Adamtsl1/Sbspon/Adamts17</t>
         </is>
       </c>
+      <c r="H8">
+        <v>12</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9">
-        <v>21</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>O-linked glycosylation</t>
+        </is>
       </c>
       <c r="B9">
         <v>0.21875</v>
@@ -634,18 +636,19 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>O-linked glycosylation</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
           <t>Adamts20/Sema5b/Adamts16/Adamts19/Thsd7b/Thsd1/Adamts1/Galnt16/St3gal2/St6galnac4/Adamts10/Adamts7/Galntl6/Adamtsl1/Pomt2/Large1/B3gnt5/St3gal4/Sbspon/Adamts17/Galnt18</t>
         </is>
       </c>
+      <c r="H9">
+        <v>21</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10">
-        <v>25</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Neurotransmitter receptors and
+postsynaptic signal transmission</t>
+        </is>
       </c>
       <c r="B10">
         <v>0.1838235294117647</v>
@@ -664,19 +667,18 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Neurotransmitter receptors and
-postsynaptic signal transmission</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
           <t>Kcnj3/Gria4/Lrrc7/Gnai1/Grin2b/Adcy3/Gngt2/Plcb1/Rps6ka2/Glrb/Adcy4/Adcy7/Gabra4/Dlg2/Gng11/Tspan7/Gng2/Plcb2/Dlg4/Gnb5/Arhgef9/Gnb4/Gabbr1/Prkar1b/Camk1</t>
         </is>
       </c>
+      <c r="H10">
+        <v>25</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11">
-        <v>16</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>G alpha (12/13) signalling events</t>
+        </is>
       </c>
       <c r="B11">
         <v>0.2285714285714286</v>
@@ -695,18 +697,18 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>G alpha (12/13) signalling events</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
           <t>Plxnb1/Adra1a/Arhgef25/Gngt2/Gng11/Arhgef15/Gng2/Arhgef26/Net1/Fgd1/Gnb5/Ngef/Arhgef9/Gnb4/Fgd2/Plekhg5</t>
         </is>
       </c>
+      <c r="H11">
+        <v>16</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12">
-        <v>10</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>G alpha (z) signalling events</t>
+        </is>
       </c>
       <c r="B12">
         <v>0.3225806451612903</v>
@@ -725,18 +727,19 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>G alpha (z) signalling events</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
           <t>Rgs16/Adcy3/Gngt2/Adcy4/Adcy7/Gng11/Gng2/Gnaz/Gnb5/Gnb4</t>
         </is>
       </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13">
-        <v>15</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Protein-protein interactions at
+synapses</t>
+        </is>
       </c>
       <c r="B13">
         <v>0.2272727272727273</v>
@@ -755,19 +758,19 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Protein-protein interactions at
-synapses</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
           <t>Gria4/Ptprd/Nlgn1/Epb41l3/Lrrc4b/Grin2b/Shank2/Ppfia2/Slitrk3/Ppfia4/Dlg2/Nlgn3/Lrfn2/Dlg4/Nlgn2</t>
         </is>
       </c>
+      <c r="H13">
+        <v>15</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14">
-        <v>14</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Collagen biosynthesis and modifying
+enzymes</t>
+        </is>
       </c>
       <c r="B14">
         <v>0.2333333333333333</v>
@@ -786,19 +789,18 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Collagen biosynthesis and modifying
-enzymes</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
           <t>Col11a1/Col26a1/P3h3/Col14a1/Col4a6/Col16a1/Col13a1/Col5a2/Col15a1/P3h1/Crtap/Col23a1/Col18a1/Col4a5</t>
         </is>
       </c>
+      <c r="H14">
+        <v>14</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15">
-        <v>11</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GABA B receptor activation</t>
+        </is>
       </c>
       <c r="B15">
         <v>0.275</v>
@@ -817,18 +819,18 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>GABA B receptor activation</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
           <t>Kcnj3/Gnai1/Adcy3/Gngt2/Adcy4/Adcy7/Gng11/Gng2/Gnb5/Gnb4/Gabbr1</t>
         </is>
       </c>
+      <c r="H15">
+        <v>11</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16">
-        <v>11</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Activation of GABAB receptors</t>
+        </is>
       </c>
       <c r="B16">
         <v>0.275</v>
@@ -847,18 +849,19 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Activation of GABAB receptors</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
           <t>Kcnj3/Gnai1/Adcy3/Gngt2/Adcy4/Adcy7/Gng11/Gng2/Gnb5/Gnb4/Gabbr1</t>
         </is>
       </c>
+      <c r="H16">
+        <v>11</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17">
-        <v>35</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Platelet activation, signaling and
+aggregation</t>
+        </is>
       </c>
       <c r="B17">
         <v>0.1440329218106996</v>
@@ -877,19 +880,18 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Platelet activation, signaling and
-aggregation</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
           <t>Hgf/Cd109/Igf1/Pcdh7/Gnai1/Fn1/Gngt2/Pik3r6/Rasgrp2/Trpc6/Maged2/Islr/Gng11/Dgkb/Vegfc/Pecam1/Igf2/Gng2/Pros1/Arrb1/Sccpdh/Arrb2/Fyn/Tor4a/Habp4/Gnb5/Fam3c/Selenop/Gnb4/Apbb1ip/Lat/Lcp2/Lhfpl2/F2r/Plek</t>
         </is>
       </c>
+      <c r="H17">
+        <v>35</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18">
-        <v>13</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>GABA receptor activation</t>
+        </is>
       </c>
       <c r="B18">
         <v>0.2321428571428572</v>
@@ -908,18 +910,18 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>GABA receptor activation</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
           <t>Kcnj3/Gnai1/Adcy3/Gngt2/Adcy4/Adcy7/Gabra4/Gng11/Gng2/Gnb5/Arhgef9/Gnb4/Gabbr1</t>
         </is>
       </c>
+      <c r="H18">
+        <v>13</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19">
-        <v>9</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>G-protein beta:gamma signalling</t>
+        </is>
       </c>
       <c r="B19">
         <v>0.3</v>
@@ -938,18 +940,18 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>G-protein beta:gamma signalling</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
           <t>Gngt2/Pik3r6/Plcb1/Gng11/Gng2/Plcb2/Akt3/Gnb5/Gnb4</t>
         </is>
       </c>
+      <c r="H19">
+        <v>9</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20">
-        <v>18</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Potassium Channels</t>
+        </is>
       </c>
       <c r="B20">
         <v>0.1875</v>
@@ -968,18 +970,19 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Potassium Channels</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
           <t>Kcnk3/Kcnb2/Kcnj3/Kcna6/Kcnd2/Kcnd3/Kcnq5/Gngt2/Gng11/Kcnma1/Gng2/Kcnc4/Kcng4/Gnb5/Gnb4/Gabbr1/Kcnq4/Kcnh1</t>
         </is>
       </c>
+      <c r="H20">
+        <v>18</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21">
-        <v>7</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Generation of second messenger
+molecules</t>
+        </is>
       </c>
       <c r="B21">
         <v>0.3684210526315789</v>
@@ -998,19 +1001,19 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Generation of second messenger
-molecules</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
           <t>Itk/Cd3g/Zap70/Lat/Lcp2/Grap2/Cd4</t>
         </is>
       </c>
+      <c r="H21">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22">
-        <v>7</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>G beta:gamma signalling through PLC
+beta</t>
+        </is>
       </c>
       <c r="B22">
         <v>0.3684210526315789</v>
@@ -1029,19 +1032,18 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>G beta:gamma signalling through PLC
-beta</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
           <t>Gngt2/Plcb1/Gng11/Gng2/Plcb2/Gnb5/Gnb4</t>
         </is>
       </c>
+      <c r="H22">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23">
-        <v>15</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Collagen formation</t>
+        </is>
       </c>
       <c r="B23">
         <v>0.2054794520547945</v>
@@ -1060,18 +1062,19 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Collagen formation</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
           <t>Col11a1/Col26a1/P3h3/Col14a1/Col4a6/Col16a1/Col13a1/Loxl3/Col5a2/Col15a1/P3h1/Crtap/Col23a1/Col18a1/Col4a5</t>
         </is>
       </c>
+      <c r="H23">
+        <v>15</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24">
-        <v>17</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Cell surface interactions at the
+vascular wall</t>
+        </is>
       </c>
       <c r="B24">
         <v>0.1910112359550562</v>
@@ -1090,19 +1093,18 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Cell surface interactions at the
-vascular wall</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
           <t>Apob/Angpt1/Itga4/Cd44/Fn1/Jam3/Tek/Procr/Itgal/Esam/Sele/Pecam1/Pros1/Fyn/Cd84/Spn/Jam2</t>
         </is>
       </c>
+      <c r="H24">
+        <v>17</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25">
-        <v>5</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Laminin interactions</t>
+        </is>
       </c>
       <c r="B25">
         <v>0.5</v>
@@ -1121,18 +1123,19 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Laminin interactions</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
           <t>Col4a6/Lama4/Nid1/Nid2/Col4a5</t>
         </is>
       </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26">
-        <v>7</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Presynaptic function of Kainate
+receptors</t>
+        </is>
       </c>
       <c r="B26">
         <v>0.35</v>
@@ -1151,19 +1154,18 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Presynaptic function of Kainate
-receptors</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
           <t>Gngt2/Plcb1/Gng11/Gng2/Plcb2/Gnb5/Gnb4</t>
         </is>
       </c>
+      <c r="H26">
+        <v>7</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27">
-        <v>14</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Opioid Signalling</t>
+        </is>
       </c>
       <c r="B27">
         <v>0.2028985507246377</v>
@@ -1182,18 +1184,18 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Opioid Signalling</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
           <t>Gnai1/Pde1b/Adcy3/Gngt2/Plcb1/Adcy4/Adcy7/Gng11/Pde1a/Gng2/Plcb2/Gnb5/Gnb4/Prkar1b</t>
         </is>
       </c>
+      <c r="H27">
+        <v>14</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28">
-        <v>9</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Sialic acid metabolism</t>
+        </is>
       </c>
       <c r="B28">
         <v>0.2727272727272727</v>
@@ -1212,18 +1214,18 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Sialic acid metabolism</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
           <t>St6gal2/St8sia2/St8sia4/Npl/St3gal2/St6galnac4/St8sia6/St6galnac6/St3gal4</t>
         </is>
       </c>
+      <c r="H28">
+        <v>9</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29">
-        <v>9</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Collagen chain trimerization</t>
+        </is>
       </c>
       <c r="B29">
         <v>0.2571428571428571</v>
@@ -1242,18 +1244,19 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Collagen chain trimerization</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
           <t>Col11a1/Col26a1/Col14a1/Col16a1/Col13a1/Col5a2/Col15a1/Col23a1/Col18a1</t>
         </is>
       </c>
+      <c r="H29">
+        <v>9</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30">
-        <v>8</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Activation of kainate receptors
+upon glutamate binding</t>
+        </is>
       </c>
       <c r="B30">
         <v>0.2758620689655172</v>
@@ -1272,19 +1275,18 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Activation of kainate receptors
-upon glutamate binding</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
           <t>Gngt2/Plcb1/Gng11/Gng2/Plcb2/Dlg4/Gnb5/Gnb4</t>
         </is>
       </c>
+      <c r="H30">
+        <v>8</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31">
-        <v>10</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Ca2+ pathway</t>
+        </is>
       </c>
       <c r="B31">
         <v>0.2325581395348837</v>
@@ -1303,18 +1305,18 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Ca2+ pathway</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
           <t>Lef1/Wnt11/Gngt2/Plcb1/Gng11/Gng2/Plcb2/Fzd2/Gnb5/Gnb4</t>
         </is>
       </c>
+      <c r="H31">
+        <v>10</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32">
-        <v>24</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>RAC1 GTPase cycle</t>
+        </is>
       </c>
       <c r="B32">
         <v>0.1481481481481481</v>
@@ -1333,18 +1335,18 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>RAC1 GTPase cycle</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
           <t>Nhs/Mcam/Fermt2/Wasf3/Arhgap45/Arhgef25/Arhgap25/Dock2/Dock10/Abi2/Sh3bp1/Arhgef15/Nckap1l/Arap3/Prex2/Arhgap10/Dlc1/Arhgap31/Ngef/Fgd5/Arhgap15/Cav1/Cyfip2/Pld2</t>
         </is>
       </c>
+      <c r="H32">
+        <v>24</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33">
-        <v>47</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>RHO GTPase cycle</t>
+        </is>
       </c>
       <c r="B33">
         <v>0.1198979591836735</v>
@@ -1363,18 +1365,18 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>RHO GTPase cycle</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
           <t>Nhs/Mcam/Plxnb1/Ccdc88a/Pcdh7/Fermt2/Wasf3/Arhgap45/Arhgef25/Akap12/Arhgap25/Dock2/Slitrk3/Myo9a/Plxnd1/Dock10/Abi2/Sh3bp1/Arhgap6/Arhgef15/Nckap1l/Arap3/Prex2/Arhgap10/Dlc1/Arhgef26/Arhgap28/Net1/Pde5a/Fgd1/Dlg5/Arhgap31/Arfgap3/Zap70/Cep97/Ngef/Arhgef9/Fgd5/Arhgap15/Elmo2/Cav1/Cyfip2/Pld2/Wdr6/Fmnl3/Fgd2/Plekhg5</t>
         </is>
       </c>
+      <c r="H33">
+        <v>47</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34">
-        <v>19</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Glycosaminoglycan metabolism</t>
+        </is>
       </c>
       <c r="B34">
         <v>0.1623931623931624</v>
@@ -1393,18 +1395,18 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Glycosaminoglycan metabolism</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
           <t>Gpc6/Chst2/Cd44/Cspg4/Gpc3/B4galt2/Has2/St3gal2/Chst1/Glb1l/Bgn/Dse/Xylt1/St3gal4/Arsb/Abcc5/Gpc2/Lum/Papss2</t>
         </is>
       </c>
+      <c r="H34">
+        <v>19</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35">
-        <v>15</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CDC42 GTPase cycle</t>
+        </is>
       </c>
       <c r="B35">
         <v>0.1807228915662651</v>
@@ -1423,18 +1425,19 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>CDC42 GTPase cycle</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
           <t>Arhgap45/Arhgef25/Dock10/Arhgef15/Arap3/Prex2/Arhgap10/Dlc1/Arhgef26/Fgd1/Arhgap31/Ngef/Arhgef9/Cav1/Fgd2</t>
         </is>
       </c>
+      <c r="H35">
+        <v>15</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36">
-        <v>7</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>G beta:gamma signalling through
+PI3Kgamma</t>
+        </is>
       </c>
       <c r="B36">
         <v>0.2916666666666667</v>
@@ -1453,19 +1456,19 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>G beta:gamma signalling through
-PI3Kgamma</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
           <t>Gngt2/Pik3r6/Gng11/Gng2/Akt3/Gnb5/Gnb4</t>
         </is>
       </c>
+      <c r="H36">
+        <v>7</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37">
-        <v>8</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Thrombin signalling through
+proteinase activated receptors (PARs)</t>
+        </is>
       </c>
       <c r="B37">
         <v>0.2580645161290323</v>
@@ -1484,14 +1487,11 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Thrombin signalling through
-proteinase activated receptors (PARs)</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
           <t>Gngt2/Gng11/Gng2/Arrb1/Arrb2/Gnb5/Gnb4/F2r</t>
         </is>
+      </c>
+      <c r="H37">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1510,48 +1510,50 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>GeneRatio</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pvalue</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>p.adjust</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>logFDR</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>qvalue</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>geneID</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Count</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>GeneRatio</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pvalue</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>p.adjust</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>logFDR</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>qvalue</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>geneID</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>52</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Neuronal System</t>
+        </is>
       </c>
       <c r="B2">
         <v>0.161993769470405</v>
@@ -1570,18 +1572,18 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Neuronal System</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
           <t>Kcnk3/Kcnb2/Syn2/Kcnj3/Slc1a3/Gria4/Kcna6/Kcnd2/Ptprd/Kcnd3/Nlgn1/Epb41l3/Lrrc7/Abat/Gnai1/Lrrc4b/Kcnq5/Grin2b/Adcy3/Maoa/Shank2/Gngt2/Ppfia2/Plcb1/Slitrk3/Rps6ka2/Glrb/Gabra4/Dlg2/Adcy4/Ppfia4/Gng11/Nlgn3/Lin7a/Adcy7/Tspan7/Kcnma1/Kcnc4/Gjc1/Gng2/Plcb2/Lrfn2/Kcng4/Slc38a1/Dlg4/Gnb5/Arhgef9/Gnb4/Kcnq4/Gabbr1/Cacna1a/Cacnb4</t>
         </is>
       </c>
+      <c r="H2">
+        <v>52</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3">
-        <v>38</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Extracellular matrix organization</t>
+        </is>
       </c>
       <c r="B3">
         <v>0.1645021645021645</v>
@@ -1600,18 +1602,19 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Extracellular matrix organization</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
           <t>Col11a1/Mmp16/Col26a1/Itga4/P3h3/Col14a1/Capn6/Col4a6/Ddr2/Cd44/Lama4/Itgb7/Fn1/Mmp2/Col16a1/Icam1/Nid1/Jam3/Itga1/Col13a1/Loxl3/Itgal/Emilin1/Pecam1/Col5a2/Col15a1/Ltbp3/Mmp19/Bgn/P3h1/Adam19/Crtap/Efemp2/Col23a1/Col18a1/Itga8/Tmprss6/Itgb4</t>
         </is>
       </c>
+      <c r="H3">
+        <v>38</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4">
-        <v>12</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>O-glycosylation of TSR
+domain-containing proteins</t>
+        </is>
       </c>
       <c r="B4">
         <v>0.3636363636363636</v>
@@ -1630,19 +1633,19 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>O-glycosylation of TSR
-domain-containing proteins</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
           <t>Adamts20/Sema5b/Adamts16/Adamts19/Thsd7b/Thsd1/Adamts1/Adamts10/Adamts7/Adamtsl1/Sbspon/Adamts17</t>
         </is>
       </c>
+      <c r="H4">
+        <v>12</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5">
-        <v>33</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Transmission across Chemical
+Synapses</t>
+        </is>
       </c>
       <c r="B5">
         <v>0.1658291457286432</v>
@@ -1661,19 +1664,18 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Transmission across Chemical
-Synapses</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
           <t>Syn2/Kcnj3/Slc1a3/Gria4/Lrrc7/Abat/Gnai1/Grin2b/Adcy3/Maoa/Gngt2/Ppfia2/Plcb1/Rps6ka2/Glrb/Gabra4/Dlg2/Adcy4/Ppfia4/Gng11/Lin7a/Adcy7/Tspan7/Gng2/Plcb2/Slc38a1/Dlg4/Gnb5/Arhgef9/Gnb4/Gabbr1/Cacna1a/Cacnb4</t>
         </is>
       </c>
+      <c r="H5">
+        <v>33</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6">
-        <v>60</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Hemostasis</t>
+        </is>
       </c>
       <c r="B6">
         <v>0.1226993865030675</v>
@@ -1692,18 +1694,18 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hemostasis</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
           <t>Apob/Hgf/Angpt1/Itga4/Cd109/Igf1/Tfpi/Nos3/Slc8a1/Cd44/Pcdh7/P2rx2/Gnai1/Fn1/Serpine2/Tek/Pde1b/Jam3/Gngt2/Pik3r6/Slc8a3/Rasgrp2/Dock2/Sh2b2/Kif26a/Dock10/Trpc6/Procr/Gng11/Islr/Esam/Itgal/Dgkb/Vegfc/Tubb4a/Pde1a/Maged2/Sele/Kif6/Igf2/Pecam1/Pros1/Gng2/Arrb1/Sccpdh/Pde5a/Cd84/Arrb2/Fyn/Fgr/Atp2b4/Tor4a/Selenop/Gnb5/Lat/Fam3c/Habp4/Apbb1ip/Gnb4/Kif16b</t>
         </is>
       </c>
+      <c r="H6">
+        <v>60</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7">
-        <v>17</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Platelet homeostasis</t>
+        </is>
       </c>
       <c r="B7">
         <v>0.2394366197183098</v>
@@ -1722,18 +1724,18 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Platelet homeostasis</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
           <t>Apob/Nos3/Slc8a1/P2rx2/Pde1b/Gngt2/Slc8a3/Trpc6/Gng11/Pde1a/Pecam1/Gng2/Pde5a/Fgr/Atp2b4/Gnb5/Gnb4</t>
         </is>
       </c>
+      <c r="H7">
+        <v>17</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8">
-        <v>19</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>O-linked glycosylation</t>
+        </is>
       </c>
       <c r="B8">
         <v>0.1979166666666667</v>
@@ -1752,18 +1754,18 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>O-linked glycosylation</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
           <t>Adamts20/Sema5b/Adamts16/Adamts19/Thsd7b/Thsd1/Adamts1/Galnt16/St6galnac4/St3gal2/Adamts10/Adamts7/Galntl6/Adamtsl1/B3gnt5/Sbspon/St3gal4/Large1/Adamts17</t>
         </is>
       </c>
+      <c r="H8">
+        <v>19</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9">
-        <v>10</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>G alpha (z) signalling events</t>
+        </is>
       </c>
       <c r="B9">
         <v>0.3225806451612903</v>
@@ -1782,18 +1784,18 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>G alpha (z) signalling events</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
           <t>Rgs16/Adcy3/Gngt2/Adcy4/Gng11/Adcy7/Gng2/Gnaz/Gnb5/Gnb4</t>
         </is>
       </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10">
-        <v>15</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Integrin cell surface interactions</t>
+        </is>
       </c>
       <c r="B10">
         <v>0.2272727272727273</v>
@@ -1812,18 +1814,19 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Integrin cell surface interactions</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
           <t>Itga4/Col4a6/Cd44/Itgb7/Fn1/Col16a1/Icam1/Jam3/Itga1/Col13a1/Itgal/Pecam1/Col5a2/Col18a1/Itga8</t>
         </is>
       </c>
+      <c r="H10">
+        <v>15</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11">
-        <v>23</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Neurotransmitter receptors and
+postsynaptic signal transmission</t>
+        </is>
       </c>
       <c r="B11">
         <v>0.1691176470588235</v>
@@ -1842,19 +1845,18 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Neurotransmitter receptors and
-postsynaptic signal transmission</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
           <t>Kcnj3/Gria4/Lrrc7/Gnai1/Grin2b/Adcy3/Gngt2/Plcb1/Rps6ka2/Glrb/Gabra4/Dlg2/Adcy4/Gng11/Adcy7/Tspan7/Gng2/Plcb2/Dlg4/Gnb5/Arhgef9/Gnb4/Gabbr1</t>
         </is>
       </c>
+      <c r="H11">
+        <v>23</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12">
-        <v>11</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>GABA B receptor activation</t>
+        </is>
       </c>
       <c r="B12">
         <v>0.275</v>
@@ -1873,18 +1875,18 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>GABA B receptor activation</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
           <t>Kcnj3/Gnai1/Adcy3/Gngt2/Adcy4/Gng11/Adcy7/Gng2/Gnb5/Gnb4/Gabbr1</t>
         </is>
       </c>
+      <c r="H12">
+        <v>11</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13">
-        <v>11</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Activation of GABAB receptors</t>
+        </is>
       </c>
       <c r="B13">
         <v>0.275</v>
@@ -1903,18 +1905,18 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Activation of GABAB receptors</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
           <t>Kcnj3/Gnai1/Adcy3/Gngt2/Adcy4/Gng11/Adcy7/Gng2/Gnb5/Gnb4/Gabbr1</t>
         </is>
       </c>
+      <c r="H13">
+        <v>11</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14">
-        <v>13</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GABA receptor activation</t>
+        </is>
       </c>
       <c r="B14">
         <v>0.2321428571428572</v>
@@ -1933,18 +1935,19 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>GABA receptor activation</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
           <t>Kcnj3/Gnai1/Adcy3/Gngt2/Gabra4/Adcy4/Gng11/Adcy7/Gng2/Gnb5/Arhgef9/Gnb4/Gabbr1</t>
         </is>
       </c>
+      <c r="H14">
+        <v>13</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15">
-        <v>14</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Protein-protein interactions at
+synapses</t>
+        </is>
       </c>
       <c r="B15">
         <v>0.2121212121212121</v>
@@ -1963,19 +1966,18 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Protein-protein interactions at
-synapses</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
           <t>Gria4/Ptprd/Nlgn1/Epb41l3/Lrrc4b/Grin2b/Shank2/Ppfia2/Slitrk3/Dlg2/Ppfia4/Nlgn3/Lrfn2/Dlg4</t>
         </is>
       </c>
+      <c r="H15">
+        <v>14</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16">
-        <v>9</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>G-protein beta:gamma signalling</t>
+        </is>
       </c>
       <c r="B16">
         <v>0.3</v>
@@ -1994,18 +1996,19 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>G-protein beta:gamma signalling</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
           <t>Gngt2/Pik3r6/Plcb1/Gng11/Gng2/Plcb2/Akt3/Gnb5/Gnb4</t>
         </is>
       </c>
+      <c r="H16">
+        <v>9</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17">
-        <v>13</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Collagen biosynthesis and modifying
+enzymes</t>
+        </is>
       </c>
       <c r="B17">
         <v>0.2166666666666667</v>
@@ -2024,19 +2027,19 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Collagen biosynthesis and modifying
-enzymes</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
           <t>Col11a1/Col26a1/P3h3/Col14a1/Col4a6/Col16a1/Col13a1/Col5a2/Col15a1/P3h1/Crtap/Col23a1/Col18a1</t>
         </is>
       </c>
+      <c r="H17">
+        <v>13</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18">
-        <v>7</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>G beta:gamma signalling through PLC
+beta</t>
+        </is>
       </c>
       <c r="B18">
         <v>0.3684210526315789</v>
@@ -2055,19 +2058,18 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>G beta:gamma signalling through PLC
-beta</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
           <t>Gngt2/Plcb1/Gng11/Gng2/Plcb2/Gnb5/Gnb4</t>
         </is>
       </c>
+      <c r="H18">
+        <v>7</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19">
-        <v>14</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>G alpha (12/13) signalling events</t>
+        </is>
       </c>
       <c r="B19">
         <v>0.2</v>
@@ -2086,18 +2088,18 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>G alpha (12/13) signalling events</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
           <t>Plxnb1/Adra1a/Arhgef25/Gngt2/Gng11/Arhgef15/Gng2/Arhgef26/Net1/Fgd1/Gnb5/Ngef/Arhgef9/Gnb4</t>
         </is>
       </c>
+      <c r="H19">
+        <v>14</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20">
-        <v>17</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Potassium Channels</t>
+        </is>
       </c>
       <c r="B20">
         <v>0.1770833333333333</v>
@@ -2116,18 +2118,19 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Potassium Channels</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
           <t>Kcnk3/Kcnb2/Kcnj3/Kcna6/Kcnd2/Kcnd3/Kcnq5/Gngt2/Gng11/Kcnma1/Kcnc4/Gng2/Kcng4/Gnb5/Gnb4/Kcnq4/Gabbr1</t>
         </is>
       </c>
+      <c r="H20">
+        <v>17</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21">
-        <v>7</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Presynaptic function of Kainate
+receptors</t>
+        </is>
       </c>
       <c r="B21">
         <v>0.35</v>
@@ -2146,19 +2149,18 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Presynaptic function of Kainate
-receptors</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
           <t>Gngt2/Plcb1/Gng11/Gng2/Plcb2/Gnb5/Gnb4</t>
         </is>
       </c>
+      <c r="H21">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22">
-        <v>9</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Sialic acid metabolism</t>
+        </is>
       </c>
       <c r="B22">
         <v>0.2727272727272727</v>
@@ -2177,18 +2179,18 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Sialic acid metabolism</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
           <t>St6gal2/St8sia2/St8sia4/Npl/St6galnac4/St3gal2/St8sia6/St6galnac6/St3gal4</t>
         </is>
       </c>
+      <c r="H22">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23">
-        <v>14</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Collagen formation</t>
+        </is>
       </c>
       <c r="B23">
         <v>0.1917808219178082</v>
@@ -2207,18 +2209,19 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Collagen formation</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
           <t>Col11a1/Col26a1/P3h3/Col14a1/Col4a6/Col16a1/Col13a1/Loxl3/Col5a2/Col15a1/P3h1/Crtap/Col23a1/Col18a1</t>
         </is>
       </c>
+      <c r="H23">
+        <v>14</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24">
-        <v>31</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Platelet activation, signaling and
+aggregation</t>
+        </is>
       </c>
       <c r="B24">
         <v>0.1275720164609054</v>
@@ -2237,19 +2240,18 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Platelet activation, signaling and
-aggregation</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
           <t>Hgf/Cd109/Igf1/Pcdh7/Gnai1/Fn1/Gngt2/Pik3r6/Rasgrp2/Trpc6/Gng11/Islr/Dgkb/Vegfc/Maged2/Igf2/Pecam1/Pros1/Gng2/Arrb1/Sccpdh/Arrb2/Fyn/Tor4a/Selenop/Gnb5/Lat/Fam3c/Habp4/Apbb1ip/Gnb4</t>
         </is>
       </c>
+      <c r="H24">
+        <v>31</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25">
-        <v>9</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Collagen chain trimerization</t>
+        </is>
       </c>
       <c r="B25">
         <v>0.2571428571428571</v>
@@ -2268,18 +2270,18 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Collagen chain trimerization</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
           <t>Col11a1/Col26a1/Col14a1/Col16a1/Col13a1/Col5a2/Col15a1/Col23a1/Col18a1</t>
         </is>
       </c>
+      <c r="H25">
+        <v>9</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26">
-        <v>10</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Ca2+ pathway</t>
+        </is>
       </c>
       <c r="B26">
         <v>0.2325581395348837</v>
@@ -2298,18 +2300,18 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Ca2+ pathway</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
           <t>Lef1/Wnt11/Gngt2/Plcb1/Gng11/Gng2/Plcb2/Fzd2/Gnb5/Gnb4</t>
         </is>
       </c>
+      <c r="H26">
+        <v>10</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27">
-        <v>23</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>RAC1 GTPase cycle</t>
+        </is>
       </c>
       <c r="B27">
         <v>0.1419753086419753</v>
@@ -2328,18 +2330,19 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>RAC1 GTPase cycle</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
           <t>Nhs/Mcam/Fermt2/Wasf3/Arhgap45/Arhgef25/Arhgap25/Dock2/Dock10/Abi2/Sh3bp1/Arhgef15/Nckap1l/Arap3/Prex2/Arhgap10/Dlc1/Arhgap31/Ngef/Fgd5/Arhgap15/Cav1/Cyfip2</t>
         </is>
       </c>
+      <c r="H27">
+        <v>23</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28">
-        <v>8</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Activation of kainate receptors
+upon glutamate binding</t>
+        </is>
       </c>
       <c r="B28">
         <v>0.2758620689655172</v>
@@ -2358,19 +2361,18 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Activation of kainate receptors
-upon glutamate binding</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
           <t>Gngt2/Plcb1/Gng11/Gng2/Plcb2/Dlg4/Gnb5/Gnb4</t>
         </is>
       </c>
+      <c r="H28">
+        <v>8</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29">
-        <v>13</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Opioid Signalling</t>
+        </is>
       </c>
       <c r="B29">
         <v>0.1884057971014493</v>
@@ -2389,18 +2391,19 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Opioid Signalling</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
           <t>Gnai1/Pde1b/Adcy3/Gngt2/Plcb1/Adcy4/Gng11/Adcy7/Pde1a/Gng2/Plcb2/Gnb5/Gnb4</t>
         </is>
       </c>
+      <c r="H29">
+        <v>13</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30">
-        <v>7</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>G beta:gamma signalling through
+PI3Kgamma</t>
+        </is>
       </c>
       <c r="B30">
         <v>0.2916666666666667</v>
@@ -2419,19 +2422,19 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>G beta:gamma signalling through
-PI3Kgamma</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
           <t>Gngt2/Pik3r6/Gng11/Gng2/Akt3/Gnb5/Gnb4</t>
         </is>
       </c>
+      <c r="H30">
+        <v>7</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31">
-        <v>15</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Cell surface interactions at the
+vascular wall</t>
+        </is>
       </c>
       <c r="B31">
         <v>0.1685393258426966</v>
@@ -2450,19 +2453,18 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Cell surface interactions at the
-vascular wall</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
           <t>Apob/Angpt1/Itga4/Cd44/Fn1/Tek/Jam3/Procr/Esam/Itgal/Sele/Pecam1/Pros1/Cd84/Fyn</t>
         </is>
       </c>
+      <c r="H31">
+        <v>15</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32">
-        <v>12</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Cell junction organization</t>
+        </is>
       </c>
       <c r="B32">
         <v>0.1875</v>
@@ -2481,18 +2483,18 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Cell junction organization</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
           <t>Sdk2/Fermt2/Cdh2/Cdh6/Cdh13/Cdh10/Cdh5/Cdh11/Pard6g/Parvb/Flnc/Itgb4</t>
         </is>
       </c>
+      <c r="H32">
+        <v>12</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33">
-        <v>14</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>CDC42 GTPase cycle</t>
+        </is>
       </c>
       <c r="B33">
         <v>0.1686746987951807</v>
@@ -2511,18 +2513,18 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>CDC42 GTPase cycle</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
           <t>Arhgap45/Arhgef25/Dock10/Arhgef15/Arap3/Prex2/Arhgef26/Arhgap10/Dlc1/Fgd1/Arhgap31/Ngef/Arhgef9/Cav1</t>
         </is>
       </c>
+      <c r="H33">
+        <v>14</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34">
-        <v>21</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Muscle contraction</t>
+        </is>
       </c>
       <c r="B34">
         <v>0.1372549019607843</v>
@@ -2541,18 +2543,19 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Muscle contraction</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
           <t>Kcnk3/Cacna1c/Kcnd2/Ryr1/Kcnd3/Slc8a1/Tmod2/Gucy1a2/Slc8a3/Itga1/Gucy1b1/Mme/Gucy1a1/Myl3/Cacng7/Kcnip3/Asph/Ryr3/Pde5a/Atp2b4/Atp1a2</t>
         </is>
       </c>
+      <c r="H34">
+        <v>21</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35">
-        <v>7</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Activation of G protein gated
+Potassium channels</t>
+        </is>
       </c>
       <c r="B35">
         <v>0.2592592592592592</v>
@@ -2571,19 +2574,18 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Activation of G protein gated
-Potassium channels</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
           <t>Kcnj3/Gngt2/Gng11/Gng2/Gnb5/Gnb4/Gabbr1</t>
         </is>
       </c>
+      <c r="H35">
+        <v>7</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36">
-        <v>7</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>G protein gated Potassium channels</t>
+        </is>
       </c>
       <c r="B36">
         <v>0.2592592592592592</v>
@@ -2602,18 +2604,19 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>G protein gated Potassium channels</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
           <t>Kcnj3/Gngt2/Gng11/Gng2/Gnb5/Gnb4/Gabbr1</t>
         </is>
       </c>
+      <c r="H36">
+        <v>7</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37">
-        <v>7</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Inhibition  of voltage gated Ca2+
+channels via Gbeta/gamma subunits</t>
+        </is>
       </c>
       <c r="B37">
         <v>0.2592592592592592</v>
@@ -2632,19 +2635,18 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Inhibition  of voltage gated Ca2+
-channels via Gbeta/gamma subunits</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
           <t>Kcnj3/Gngt2/Gng11/Gng2/Gnb5/Gnb4/Gabbr1</t>
         </is>
       </c>
+      <c r="H37">
+        <v>7</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38">
-        <v>17</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Glycosaminoglycan metabolism</t>
+        </is>
       </c>
       <c r="B38">
         <v>0.1452991452991453</v>
@@ -2663,18 +2665,19 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Glycosaminoglycan metabolism</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
           <t>Gpc6/Chst2/Cd44/Cspg4/Gpc3/B4galt2/Has2/St3gal2/Chst1/Glb1l/Bgn/Xylt1/Dse/St3gal4/Arsb/Gpc2/Abcc5</t>
         </is>
       </c>
+      <c r="H38">
+        <v>17</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39">
-        <v>6</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ADP signalling through P2Y
+purinoceptor 12</t>
+        </is>
       </c>
       <c r="B39">
         <v>0.2857142857142857</v>
@@ -2693,19 +2696,19 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>ADP signalling through P2Y
-purinoceptor 12</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
           <t>Gnai1/Gngt2/Gng11/Gng2/Gnb5/Gnb4</t>
         </is>
       </c>
+      <c r="H39">
+        <v>6</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40">
-        <v>6</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Adrenaline,noradrenaline inhibits
+insulin secretion</t>
+        </is>
       </c>
       <c r="B40">
         <v>0.2727272727272727</v>
@@ -2724,19 +2727,18 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Adrenaline,noradrenaline inhibits
-insulin secretion</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
           <t>Gnai1/Gngt2/Gng11/Gng2/Gnb5/Gnb4</t>
         </is>
       </c>
+      <c r="H40">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41">
-        <v>41</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>RHO GTPase cycle</t>
+        </is>
       </c>
       <c r="B41">
         <v>0.1045918367346939</v>
@@ -2755,18 +2757,18 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>RHO GTPase cycle</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
           <t>Nhs/Mcam/Plxnb1/Ccdc88a/Pcdh7/Fermt2/Wasf3/Arhgap45/Arhgef25/Akap12/Arhgap25/Dock2/Slitrk3/Plxnd1/Dock10/Abi2/Myo9a/Sh3bp1/Arhgef15/Arhgap6/Nckap1l/Arap3/Prex2/Arhgef26/Arhgap10/Arhgap28/Pde5a/Dlc1/Net1/Fgd1/Zap70/Dlg5/Arhgap31/Ngef/Fgd5/Arhgef9/Cep97/Arhgap15/Arfgap3/Cav1/Cyfip2</t>
         </is>
       </c>
+      <c r="H41">
+        <v>41</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42">
-        <v>24</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>G alpha (q) signalling events</t>
+        </is>
       </c>
       <c r="B42">
         <v>0.1218274111675127</v>
@@ -2785,18 +2787,19 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>G alpha (q) signalling events</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
           <t>Adra1a/Rgs16/Ednrb/Lpar4/Arhgef25/Gngt2/Ptgfr/Edn3/Plcb1/Rps6ka2/Trpc6/Gng11/Dgkb/Rgs5/Agtr1a/Ednra/Bdkrb2/Xcl1/Htr2a/Gng2/Plcb2/Gnb5/Prokr1/Gnb4</t>
         </is>
       </c>
+      <c r="H42">
+        <v>24</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43">
-        <v>10</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Class B/2 (Secretin family
+receptors)</t>
+        </is>
       </c>
       <c r="B43">
         <v>0.1818181818181818</v>
@@ -2815,19 +2818,18 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Class B/2 (Secretin family
-receptors)</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
           <t>Vipr2/Gngt2/Calca/Pth1r/Gng11/Adcyap1r1/Gng2/Calcrl/Gnb5/Gnb4</t>
         </is>
       </c>
+      <c r="H43">
+        <v>10</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44">
-        <v>13</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Cell-Cell communication</t>
+        </is>
       </c>
       <c r="B44">
         <v>0.1566265060240964</v>
@@ -2846,18 +2848,19 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Cell-Cell communication</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
           <t>Sdk2/Fermt2/Cdh2/Cdh6/Cdh13/Cdh10/Cdh5/Cdh11/Pard6g/Parvb/Flnc/Fyn/Itgb4</t>
         </is>
       </c>
+      <c r="H44">
+        <v>13</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45">
-        <v>6</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>A tetrasaccharide linker sequence
+is required for GAG synthesis</t>
+        </is>
       </c>
       <c r="B45">
         <v>0.2608695652173913</v>
@@ -2876,19 +2879,19 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>A tetrasaccharide linker sequence
-is required for GAG synthesis</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
           <t>Gpc6/Cspg4/Gpc3/Bgn/Xylt1/Gpc2</t>
         </is>
       </c>
+      <c r="H45">
+        <v>6</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46">
-        <v>6</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>N-glycan antennae elongation in the
+medial/trans-Golgi</t>
+        </is>
       </c>
       <c r="B46">
         <v>0.2608695652173913</v>
@@ -2907,14 +2910,11 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>N-glycan antennae elongation in the
-medial/trans-Golgi</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
           <t>St8sia2/Man2a2/Chst10/B4galt2/St8sia6/St3gal4</t>
         </is>
+      </c>
+      <c r="H46">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2933,48 +2933,50 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>GeneRatio</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pvalue</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>p.adjust</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>logFDR</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>qvalue</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>geneID</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Count</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>GeneRatio</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pvalue</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>p.adjust</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>logFDR</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>qvalue</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>geneID</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>20</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Neuronal System</t>
+        </is>
       </c>
       <c r="B2">
         <v>0.06230529595015576</v>
@@ -2993,18 +2995,19 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Neuronal System</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
           <t>Kcnk3/Kcnb2/Syn2/Kcnj3/Slc1a3/Kcnd2/Gria4/Kcna6/Kcnd3/Lrrc7/Nlgn1/Ptprd/Abat/Epb41l3/Lrrc4b/Gnai1/Kcnq5/Ppfia2/Grin2b/Gabra4</t>
         </is>
       </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3">
-        <v>7</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Protein-protein interactions at
+synapses</t>
+        </is>
       </c>
       <c r="B3">
         <v>0.1060606060606061</v>
@@ -3023,19 +3026,19 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Protein-protein interactions at
-synapses</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
           <t>Gria4/Nlgn1/Ptprd/Epb41l3/Lrrc4b/Ppfia2/Grin2b</t>
         </is>
       </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4">
-        <v>5</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>O-glycosylation of TSR
+domain-containing proteins</t>
+        </is>
       </c>
       <c r="B4">
         <v>0.1515151515151515</v>
@@ -3054,19 +3057,18 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>O-glycosylation of TSR
-domain-containing proteins</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
           <t>Adamts20/Sema5b/Adamts16/Thsd7b/Adamts19</t>
         </is>
       </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5">
-        <v>13</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Axon guidance</t>
+        </is>
       </c>
       <c r="B5">
         <v>0.05220883534136546</v>
@@ -3085,18 +3087,18 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Axon guidance</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
           <t>Gap43/Epha8/Efnb3/Dcc/St8sia2/Plxnb1/St8sia4/Dab1/Evl/Grin2b/Sema7a/Mmp2/Cxcl12</t>
         </is>
       </c>
+      <c r="H5">
+        <v>13</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6">
-        <v>13</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Nervous system development</t>
+        </is>
       </c>
       <c r="B6">
         <v>0.052</v>
@@ -3115,18 +3117,19 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Nervous system development</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
           <t>Gap43/Epha8/Efnb3/Dcc/St8sia2/Plxnb1/St8sia4/Dab1/Evl/Grin2b/Sema7a/Mmp2/Cxcl12</t>
         </is>
       </c>
+      <c r="H6">
+        <v>13</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7">
-        <v>8</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Degradation of the extracellular
+matrix</t>
+        </is>
       </c>
       <c r="B7">
         <v>0.07476635514018691</v>
@@ -3145,19 +3148,18 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Degradation of the extracellular
-matrix</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
           <t>Col11a1/Mmp16/Col26a1/Capn6/Col4a6/Cd44/Mmp2/Nid1</t>
         </is>
       </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8">
-        <v>3</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Laminin interactions</t>
+        </is>
       </c>
       <c r="B8">
         <v>0.3</v>
@@ -3176,18 +3178,18 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Laminin interactions</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
           <t>Col4a6/Lama4/Nid1</t>
         </is>
       </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9">
-        <v>5</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Voltage gated Potassium channels</t>
+        </is>
       </c>
       <c r="B9">
         <v>0.125</v>
@@ -3206,18 +3208,18 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Voltage gated Potassium channels</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
           <t>Kcnb2/Kcnd2/Kcna6/Kcnd3/Kcnq5</t>
         </is>
       </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10">
-        <v>12</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Extracellular matrix organization</t>
+        </is>
       </c>
       <c r="B10">
         <v>0.05194805194805195</v>
@@ -3236,18 +3238,18 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Extracellular matrix organization</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
           <t>Col11a1/Mmp16/Col26a1/Col14a1/Capn6/Col4a6/Itga4/P3h3/Cd44/Mmp2/Lama4/Nid1</t>
         </is>
       </c>
+      <c r="H10">
+        <v>12</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11">
-        <v>5</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Retinoid metabolism and transport</t>
+        </is>
       </c>
       <c r="B11">
         <v>0.119047619047619</v>
@@ -3266,18 +3268,18 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Retinoid metabolism and transport</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
           <t>Gpc6/Apob/Ttr/Gpc3/Lrp2</t>
         </is>
       </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12">
-        <v>5</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Metabolism of fat-soluble vitamins</t>
+        </is>
       </c>
       <c r="B12">
         <v>0.108695652173913</v>
@@ -3296,18 +3298,18 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Metabolism of fat-soluble vitamins</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
           <t>Gpc6/Apob/Ttr/Gpc3/Lrp2</t>
         </is>
       </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13">
-        <v>7</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Potassium Channels</t>
+        </is>
       </c>
       <c r="B13">
         <v>0.07291666666666667</v>
@@ -3326,13 +3328,11 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Potassium Channels</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
           <t>Kcnk3/Kcnb2/Kcnj3/Kcnd2/Kcna6/Kcnd3/Kcnq5</t>
         </is>
+      </c>
+      <c r="H13">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/3_output/reactome_sig.xlsx
+++ b/3_output/reactome_sig.xlsx
@@ -554,8 +554,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Transmission across Chemical
-Synapses</t>
+          <t>Transmission across Chemical Synapses</t>
         </is>
       </c>
       <c r="B7">
@@ -585,8 +584,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>O-glycosylation of TSR
-domain-containing proteins</t>
+          <t>O-glycosylation of TSR domain-containing proteins</t>
         </is>
       </c>
       <c r="B8">
@@ -646,8 +644,8 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Neurotransmitter receptors and
-postsynaptic signal transmission</t>
+          <t>Neurotransmitter receptors and postsynaptic signal
+transmission</t>
         </is>
       </c>
       <c r="B10">
@@ -737,8 +735,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Protein-protein interactions at
-synapses</t>
+          <t>Protein-protein interactions at synapses</t>
         </is>
       </c>
       <c r="B13">
@@ -768,8 +765,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Collagen biosynthesis and modifying
-enzymes</t>
+          <t>Collagen biosynthesis and modifying enzymes</t>
         </is>
       </c>
       <c r="B14">
@@ -859,8 +855,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Platelet activation, signaling and
-aggregation</t>
+          <t>Platelet activation, signaling and aggregation</t>
         </is>
       </c>
       <c r="B17">
@@ -980,8 +975,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Generation of second messenger
-molecules</t>
+          <t>Generation of second messenger molecules</t>
         </is>
       </c>
       <c r="B21">
@@ -1011,8 +1005,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>G beta:gamma signalling through PLC
-beta</t>
+          <t>G beta:gamma signalling through PLC beta</t>
         </is>
       </c>
       <c r="B22">
@@ -1072,8 +1065,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Cell surface interactions at the
-vascular wall</t>
+          <t>Cell surface interactions at the vascular wall</t>
         </is>
       </c>
       <c r="B24">
@@ -1133,8 +1125,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Presynaptic function of Kainate
-receptors</t>
+          <t>Presynaptic function of Kainate receptors</t>
         </is>
       </c>
       <c r="B26">
@@ -1254,8 +1245,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Activation of kainate receptors
-upon glutamate binding</t>
+          <t>Activation of kainate receptors upon glutamate binding</t>
         </is>
       </c>
       <c r="B30">
@@ -1435,8 +1425,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>G beta:gamma signalling through
-PI3Kgamma</t>
+          <t>G beta:gamma signalling through PI3Kgamma</t>
         </is>
       </c>
       <c r="B36">
@@ -1466,8 +1455,8 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Thrombin signalling through
-proteinase activated receptors (PARs)</t>
+          <t>Thrombin signalling through proteinase activated
+receptors (PARs)</t>
         </is>
       </c>
       <c r="B37">
@@ -1612,8 +1601,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>O-glycosylation of TSR
-domain-containing proteins</t>
+          <t>O-glycosylation of TSR domain-containing proteins</t>
         </is>
       </c>
       <c r="B4">
@@ -1643,8 +1631,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Transmission across Chemical
-Synapses</t>
+          <t>Transmission across Chemical Synapses</t>
         </is>
       </c>
       <c r="B5">
@@ -1824,8 +1811,8 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Neurotransmitter receptors and
-postsynaptic signal transmission</t>
+          <t>Neurotransmitter receptors and postsynaptic signal
+transmission</t>
         </is>
       </c>
       <c r="B11">
@@ -1945,8 +1932,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Protein-protein interactions at
-synapses</t>
+          <t>Protein-protein interactions at synapses</t>
         </is>
       </c>
       <c r="B15">
@@ -2006,8 +1992,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Collagen biosynthesis and modifying
-enzymes</t>
+          <t>Collagen biosynthesis and modifying enzymes</t>
         </is>
       </c>
       <c r="B17">
@@ -2037,8 +2022,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>G beta:gamma signalling through PLC
-beta</t>
+          <t>G beta:gamma signalling through PLC beta</t>
         </is>
       </c>
       <c r="B18">
@@ -2128,8 +2112,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Presynaptic function of Kainate
-receptors</t>
+          <t>Presynaptic function of Kainate receptors</t>
         </is>
       </c>
       <c r="B21">
@@ -2219,8 +2202,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Platelet activation, signaling and
-aggregation</t>
+          <t>Platelet activation, signaling and aggregation</t>
         </is>
       </c>
       <c r="B24">
@@ -2340,8 +2322,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Activation of kainate receptors
-upon glutamate binding</t>
+          <t>Activation of kainate receptors upon glutamate binding</t>
         </is>
       </c>
       <c r="B28">
@@ -2401,8 +2382,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>G beta:gamma signalling through
-PI3Kgamma</t>
+          <t>G beta:gamma signalling through PI3Kgamma</t>
         </is>
       </c>
       <c r="B30">
@@ -2432,8 +2412,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Cell surface interactions at the
-vascular wall</t>
+          <t>Cell surface interactions at the vascular wall</t>
         </is>
       </c>
       <c r="B31">
@@ -2553,8 +2532,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Activation of G protein gated
-Potassium channels</t>
+          <t>Activation of G protein gated Potassium channels</t>
         </is>
       </c>
       <c r="B35">
@@ -2614,8 +2592,8 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Inhibition  of voltage gated Ca2+
-channels via Gbeta/gamma subunits</t>
+          <t>Inhibition  of voltage gated Ca2+ channels via
+Gbeta/gamma subunits</t>
         </is>
       </c>
       <c r="B37">
@@ -2675,8 +2653,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ADP signalling through P2Y
-purinoceptor 12</t>
+          <t>ADP signalling through P2Y purinoceptor 12</t>
         </is>
       </c>
       <c r="B39">
@@ -2706,8 +2683,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Adrenaline,noradrenaline inhibits
-insulin secretion</t>
+          <t>Adrenaline,noradrenaline inhibits insulin secretion</t>
         </is>
       </c>
       <c r="B40">
@@ -2797,8 +2773,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Class B/2 (Secretin family
-receptors)</t>
+          <t>Class B/2 (Secretin family receptors)</t>
         </is>
       </c>
       <c r="B43">
@@ -2858,8 +2833,8 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A tetrasaccharide linker sequence
-is required for GAG synthesis</t>
+          <t>A tetrasaccharide linker sequence is required for GAG
+synthesis</t>
         </is>
       </c>
       <c r="B45">
@@ -2889,8 +2864,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>N-glycan antennae elongation in the
-medial/trans-Golgi</t>
+          <t>N-glycan antennae elongation in the medial/trans-Golgi</t>
         </is>
       </c>
       <c r="B46">
@@ -3005,8 +2979,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Protein-protein interactions at
-synapses</t>
+          <t>Protein-protein interactions at synapses</t>
         </is>
       </c>
       <c r="B3">
@@ -3036,8 +3009,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>O-glycosylation of TSR
-domain-containing proteins</t>
+          <t>O-glycosylation of TSR domain-containing proteins</t>
         </is>
       </c>
       <c r="B4">
@@ -3127,8 +3099,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Degradation of the extracellular
-matrix</t>
+          <t>Degradation of the extracellular matrix</t>
         </is>
       </c>
       <c r="B7">

--- a/3_output/reactome_sig.xlsx
+++ b/3_output/reactome_sig.xlsx
@@ -353,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,27 +408,27 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.1744548286604361</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="C2">
-        <v>3.208810145338894e-09</v>
+        <v>1.229683592683121e-09</v>
       </c>
       <c r="D2">
-        <v>2.255793532173243e-06</v>
+        <v>8.693863000269666e-07</v>
       </c>
       <c r="E2">
-        <v>5.646700652889615</v>
+        <v>6.060787207795481</v>
       </c>
       <c r="F2">
-        <v>1.925286087203337e-06</v>
+        <v>7.378101556098727e-07</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Kcnk3/Kcnb2/Syn2/Slc1a3/Kcnj3/Gria4/Kcna6/Kcnd2/Ptprd/Kcnd3/Nlgn1/Epb41l3/Abat/Lrrc7/Gnai1/Lrrc4b/Kcnq5/Grin2b/Adcy3/Shank2/Maoa/Gngt2/Plcb1/Ppfia2/Slitrk3/Rps6ka2/Glrb/Ppfia4/Adcy4/Adcy7/Gabra4/Dlg2/Gng11/Lin7a/Nlgn3/Tspan7/Kcnma1/Gjc1/Gng2/Kcnc4/Plcb2/Slc38a1/Lrfn2/Dlg4/Kcng4/Gnb5/Arhgef9/Gnb4/Gabbr1/Kcnq4/Cacna1a/Cacnb4/Prkar1b/Kcnh1/Camk1/Nlgn2</t>
+          <t>Kcnk3/Kcnb2/Syn2/Slc1a3/Kcnj3/Gria4/Kcna6/Kcnd2/Ptprd/Kcnd3/Nlgn1/Epb41l3/Abat/Lrrc7/Gnai1/Lrrc4b/Kcnq5/Grin2b/Adcy3/Shank2/Maoa/Gngt2/Plcb1/Ppfia2/Slitrk3/Rps6ka2/Glrb/Ppfia4/Adcy4/Adcy7/Gabra4/Dlg2/Gng11/Lin7a/Nlgn3/Tspan7/Kcnma1/Gjc1/Gng2/Kcnc4/Plcb2/Slc38a1/Lrfn2/Dlg4/Kcng4/Gnb5/Gng7/Arhgef9/Gnb4/Gabbr1/Kcnq4/Cacna1a/Cacnb4/Prkar1b/Kcnh1/Camk1/Nlgn2</t>
         </is>
       </c>
       <c r="H2">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -441,16 +441,16 @@
         <v>0.1904761904761905</v>
       </c>
       <c r="C3">
-        <v>1.131945516827975e-08</v>
+        <v>9.765189315614648e-09</v>
       </c>
       <c r="D3">
-        <v>3.978788491650332e-06</v>
+        <v>3.451994423069778e-06</v>
       </c>
       <c r="E3">
-        <v>5.400249146892969</v>
+        <v>5.46192991458834</v>
       </c>
       <c r="F3">
-        <v>3.395836550483926e-06</v>
+        <v>2.929556794684394e-06</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -468,27 +468,27 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.1451942740286299</v>
+        <v>0.1466395112016293</v>
       </c>
       <c r="C4">
-        <v>7.516284553626011e-08</v>
+        <v>3.272237028060742e-08</v>
       </c>
       <c r="D4">
-        <v>1.761316013733029e-05</v>
+        <v>7.711571929463149e-06</v>
       </c>
       <c r="E4">
-        <v>4.754162716316815</v>
+        <v>5.112857086189229</v>
       </c>
       <c r="F4">
-        <v>1.503256910725202e-05</v>
+        <v>6.544474056121485e-06</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Apob/Hgf/Angpt1/Itga4/Cd109/Igf1/Tfpi/Slc8a1/Nos3/Cd44/Pcdh7/P2rx2/Gnai1/Fn1/Pde1b/Serpine2/Jam3/Tek/Gngt2/Pik3r6/Dock2/Rasgrp2/Slc8a3/Trpc6/Sh2b2/Kif26a/Dock10/Maged2/Islr/Procr/Gng11/Itgal/Esam/Dgkb/Tubb4a/Vegfc/Pde1a/Sele/Pecam1/Kif6/Igf2/Gng2/Pros1/Arrb1/Sccpdh/Arrb2/Fyn/Pde5a/Cd84/Tor4a/Fgr/Habp4/Atp2b4/Gnb5/Fam3c/Selenop/Gnb4/Apbb1ip/Sri/Lat/Vps45/Kif16b/Spn/Lcp2/Pafah2/Lhfpl2/F2r/Prkar1b/Kif5a/Plek/Jam2</t>
+          <t>Apob/Hgf/Angpt1/Itga4/Cd109/Igf1/Tfpi/Slc8a1/Nos3/Cd44/Pcdh7/P2rx2/Gnai1/Fn1/Pde1b/Serpine2/Jam3/Tek/Gngt2/Pik3r6/Dock2/Rasgrp2/Slc8a3/Trpc6/Sh2b2/Kif26a/Dock10/Maged2/Islr/Procr/Gng11/Itgal/Esam/Dgkb/Tubb4a/Vegfc/Pde1a/Sele/Pecam1/Kif6/Igf2/Gng2/Pros1/Arrb1/Sccpdh/Arrb2/Fyn/Pde5a/Cd84/Tor4a/Fgr/Habp4/Atp2b4/Gnb5/Fam3c/Gng7/Selenop/Gnb4/Apbb1ip/Sri/Lat/Vps45/Kif16b/Spn/Lcp2/Pafah2/Lhfpl2/F2r/Prkar1b/Kif5a/Plek/Jam2</t>
         </is>
       </c>
       <c r="H4">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
@@ -498,87 +498,87 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.2676056338028169</v>
+        <v>0.273972602739726</v>
       </c>
       <c r="C5">
-        <v>9.759894296137403e-07</v>
+        <v>3.080918078191534e-07</v>
       </c>
       <c r="D5">
-        <v>0.0001715301422546149</v>
+        <v>5.445522703203537e-05</v>
       </c>
       <c r="E5">
-        <v>3.765659552212434</v>
+        <v>4.263960426978605</v>
       </c>
       <c r="F5">
-        <v>0.0001463984144420611</v>
+        <v>4.621377117287302e-05</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Apob/Slc8a1/Nos3/P2rx2/Pde1b/Gngt2/Slc8a3/Trpc6/Gng11/Pde1a/Pecam1/Gng2/Pde5a/Fgr/Atp2b4/Gnb5/Gnb4/Sri/Pafah2</t>
+          <t>Apob/Slc8a1/Nos3/P2rx2/Pde1b/Gngt2/Slc8a3/Trpc6/Gng11/Pde1a/Pecam1/Gng2/Pde5a/Fgr/Atp2b4/Gnb5/Gng7/Gnb4/Sri/Pafah2</t>
         </is>
       </c>
       <c r="H5">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Integrin cell surface interactions</t>
+          <t>Transmission across Chemical Synapses</t>
         </is>
       </c>
       <c r="B6">
-        <v>0.2727272727272727</v>
+        <v>0.1791044776119403</v>
       </c>
       <c r="C6">
-        <v>1.391332957163554e-06</v>
+        <v>1.058658855193327e-06</v>
       </c>
       <c r="D6">
-        <v>0.0001956214137771957</v>
+        <v>0.0001496943621243365</v>
       </c>
       <c r="E6">
-        <v>3.708583606725072</v>
+        <v>3.824794555998952</v>
       </c>
       <c r="F6">
-        <v>0.0001669599548596265</v>
+        <v>0.0001270390626231993</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Itga4/Col4a6/Cd44/Col16a1/Itgb7/Fn1/Icam1/Jam3/Itga1/Col13a1/Itgal/Pecam1/Col5a2/Col18a1/Itga8/Lum/Jam2/Col4a5</t>
+          <t>Syn2/Slc1a3/Kcnj3/Gria4/Abat/Lrrc7/Gnai1/Grin2b/Adcy3/Maoa/Gngt2/Plcb1/Ppfia2/Rps6ka2/Glrb/Ppfia4/Adcy4/Adcy7/Gabra4/Dlg2/Gng11/Lin7a/Tspan7/Gng2/Plcb2/Slc38a1/Dlg4/Gnb5/Gng7/Arhgef9/Gnb4/Gabbr1/Cacna1a/Cacnb4/Prkar1b/Camk1</t>
         </is>
       </c>
       <c r="H6">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Transmission across Chemical Synapses</t>
+          <t>Integrin cell surface interactions</t>
         </is>
       </c>
       <c r="B7">
-        <v>0.1758793969849246</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C7">
-        <v>2.5842915769487e-06</v>
+        <v>1.294831047786525e-06</v>
       </c>
       <c r="D7">
-        <v>0.0002986131050190167</v>
+        <v>0.0001525742584641788</v>
       </c>
       <c r="E7">
-        <v>3.524891136622533</v>
+        <v>3.81651873210837</v>
       </c>
       <c r="F7">
-        <v>0.0002548618250517924</v>
+        <v>0.0001294831047786525</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Syn2/Slc1a3/Kcnj3/Gria4/Abat/Lrrc7/Gnai1/Grin2b/Adcy3/Maoa/Gngt2/Plcb1/Ppfia2/Rps6ka2/Glrb/Ppfia4/Adcy4/Adcy7/Gabra4/Dlg2/Gng11/Lin7a/Tspan7/Gng2/Plcb2/Slc38a1/Dlg4/Gnb5/Arhgef9/Gnb4/Gabbr1/Cacna1a/Cacnb4/Prkar1b/Camk1</t>
+          <t>Itga4/Col4a6/Cd44/Col16a1/Itgb7/Fn1/Icam1/Jam3/Itga1/Col13a1/Itgal/Pecam1/Col5a2/Col18a1/Itga8/Lum/Jam2/Col4a5</t>
         </is>
       </c>
       <c r="H7">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -591,16 +591,16 @@
         <v>0.3636363636363636</v>
       </c>
       <c r="C8">
-        <v>2.973387958937578e-06</v>
+        <v>2.821865537705598e-06</v>
       </c>
       <c r="D8">
-        <v>0.0002986131050190167</v>
+        <v>0.0002850084193082654</v>
       </c>
       <c r="E8">
-        <v>3.524891136622533</v>
+        <v>3.545142310499863</v>
       </c>
       <c r="F8">
-        <v>0.0002548618250517924</v>
+        <v>0.0002418741889461941</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -621,16 +621,16 @@
         <v>0.21875</v>
       </c>
       <c r="C9">
-        <v>8.98308570871246e-06</v>
+        <v>8.320860248568704e-06</v>
       </c>
       <c r="D9">
-        <v>0.0007893886566531073</v>
+        <v>0.0007353560244672592</v>
       </c>
       <c r="E9">
-        <v>3.102709118614885</v>
+        <v>3.13350234523443</v>
       </c>
       <c r="F9">
-        <v>0.0006737314281534345</v>
+        <v>0.0006240645186426528</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -649,413 +649,413 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.1838235294117647</v>
+        <v>0.1884057971014493</v>
       </c>
       <c r="C10">
-        <v>3.246481777290044e-05</v>
+        <v>1.320935017721667e-05</v>
       </c>
       <c r="D10">
-        <v>0.002535862988261001</v>
+        <v>0.0009747892924134408</v>
       </c>
       <c r="E10">
-        <v>2.595874214926602</v>
+        <v>3.011089249974898</v>
       </c>
       <c r="F10">
-        <v>0.002164321184860029</v>
+        <v>0.0008272610685262579</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Kcnj3/Gria4/Lrrc7/Gnai1/Grin2b/Adcy3/Gngt2/Plcb1/Rps6ka2/Glrb/Adcy4/Adcy7/Gabra4/Dlg2/Gng11/Tspan7/Gng2/Plcb2/Dlg4/Gnb5/Arhgef9/Gnb4/Gabbr1/Prkar1b/Camk1</t>
+          <t>Kcnj3/Gria4/Lrrc7/Gnai1/Grin2b/Adcy3/Gngt2/Plcb1/Rps6ka2/Glrb/Adcy4/Adcy7/Gabra4/Dlg2/Gng11/Tspan7/Gng2/Plcb2/Dlg4/Gnb5/Gng7/Arhgef9/Gnb4/Gabbr1/Prkar1b/Camk1</t>
         </is>
       </c>
       <c r="H10">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>G alpha (12/13) signalling events</t>
+          <t>G alpha (z) signalling events</t>
         </is>
       </c>
       <c r="B11">
-        <v>0.2285714285714286</v>
+        <v>0.34375</v>
       </c>
       <c r="C11">
-        <v>5.92094874483432e-05</v>
+        <v>1.378768447543763e-05</v>
       </c>
       <c r="D11">
-        <v>0.004162426967618526</v>
+        <v>0.0009747892924134408</v>
       </c>
       <c r="E11">
-        <v>2.380653373386771</v>
+        <v>3.011089249974898</v>
       </c>
       <c r="F11">
-        <v>0.003552569246900592</v>
+        <v>0.0008272610685262579</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Plxnb1/Adra1a/Arhgef25/Gngt2/Gng11/Arhgef15/Gng2/Arhgef26/Net1/Fgd1/Gnb5/Ngef/Arhgef9/Gnb4/Fgd2/Plekhg5</t>
+          <t>Rgs16/Adcy3/Gngt2/Adcy4/Adcy7/Gng11/Gng2/Gnaz/Gnb5/Gng7/Gnb4</t>
         </is>
       </c>
       <c r="H11">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>G alpha (z) signalling events</t>
+          <t>G alpha (12/13) signalling events</t>
         </is>
       </c>
       <c r="B12">
-        <v>0.3225806451612903</v>
+        <v>0.2394366197183098</v>
       </c>
       <c r="C12">
-        <v>6.650385511482094e-05</v>
+        <v>1.717455221926933e-05</v>
       </c>
       <c r="D12">
-        <v>0.004250200922338102</v>
+        <v>0.00110385531082031</v>
       </c>
       <c r="E12">
-        <v>2.371590538796709</v>
+        <v>2.95708784855466</v>
       </c>
       <c r="F12">
-        <v>0.003627483006262961</v>
+        <v>0.0009367937574146905</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Rgs16/Adcy3/Gngt2/Adcy4/Adcy7/Gng11/Gng2/Gnaz/Gnb5/Gnb4</t>
+          <t>Plxnb1/Adra1a/Arhgef25/Gngt2/Gng11/Arhgef15/Gng2/Arhgef26/Net1/Fgd1/Gnb5/Gng7/Ngef/Arhgef9/Gnb4/Fgd2/Plekhg5</t>
         </is>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Protein-protein interactions at synapses</t>
+          <t>GABA B receptor activation</t>
         </is>
       </c>
       <c r="B13">
-        <v>0.2272727272727273</v>
+        <v>0.2926829268292683</v>
       </c>
       <c r="C13">
-        <v>0.0001074200587572881</v>
+        <v>3.557238848957198e-05</v>
       </c>
       <c r="D13">
-        <v>0.006293025108864462</v>
+        <v>0.001934590666317492</v>
       </c>
       <c r="E13">
-        <v>2.201140535435173</v>
+        <v>2.713410911867433</v>
       </c>
       <c r="F13">
-        <v>0.005371002937864407</v>
+        <v>0.001641802545672553</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Gria4/Ptprd/Nlgn1/Epb41l3/Lrrc4b/Grin2b/Shank2/Ppfia2/Slitrk3/Ppfia4/Dlg2/Nlgn3/Lrfn2/Dlg4/Nlgn2</t>
+          <t>Kcnj3/Gnai1/Adcy3/Gngt2/Adcy4/Adcy7/Gng11/Gng2/Gnb5/Gng7/Gnb4/Gabbr1</t>
         </is>
       </c>
       <c r="H13">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Collagen biosynthesis and modifying enzymes</t>
+          <t>Activation of GABAB receptors</t>
         </is>
       </c>
       <c r="B14">
-        <v>0.2333333333333333</v>
+        <v>0.2926829268292683</v>
       </c>
       <c r="C14">
-        <v>0.0001342608018518033</v>
+        <v>3.557238848957198e-05</v>
       </c>
       <c r="D14">
-        <v>0.006885731431211985</v>
+        <v>0.001934590666317492</v>
       </c>
       <c r="E14">
-        <v>2.162049920379133</v>
+        <v>2.713410911867433</v>
       </c>
       <c r="F14">
-        <v>0.005876868931333132</v>
+        <v>0.001641802545672553</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Col11a1/Col26a1/P3h3/Col14a1/Col4a6/Col16a1/Col13a1/Col5a2/Col15a1/P3h1/Crtap/Col23a1/Col18a1/Col4a5</t>
+          <t>Kcnj3/Gnai1/Adcy3/Gngt2/Adcy4/Adcy7/Gng11/Gng2/Gnb5/Gng7/Gnb4/Gabbr1</t>
         </is>
       </c>
       <c r="H14">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GABA B receptor activation</t>
+          <t>G beta:gamma signalling through PLC beta</t>
         </is>
       </c>
       <c r="B15">
-        <v>0.275</v>
+        <v>0.4</v>
       </c>
       <c r="C15">
-        <v>0.0001469217232833283</v>
+        <v>6.097714780310304e-05</v>
       </c>
       <c r="D15">
-        <v>0.006885731431211985</v>
+        <v>0.003004251149268067</v>
       </c>
       <c r="E15">
-        <v>2.162049920379133</v>
+        <v>2.522263764017404</v>
       </c>
       <c r="F15">
-        <v>0.005876868931333132</v>
+        <v>0.002549576647186478</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Kcnj3/Gnai1/Adcy3/Gngt2/Adcy4/Adcy7/Gng11/Gng2/Gnb5/Gnb4/Gabbr1</t>
+          <t>Gngt2/Plcb1/Gng11/Gng2/Plcb2/Gnb5/Gng7/Gnb4</t>
         </is>
       </c>
       <c r="H15">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Activation of GABAB receptors</t>
+          <t>G-protein beta:gamma signalling</t>
         </is>
       </c>
       <c r="B16">
-        <v>0.275</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="C16">
-        <v>0.0001469217232833283</v>
+        <v>6.373941617966195e-05</v>
       </c>
       <c r="D16">
-        <v>0.006885731431211985</v>
+        <v>0.003004251149268067</v>
       </c>
       <c r="E16">
-        <v>2.162049920379133</v>
+        <v>2.522263764017404</v>
       </c>
       <c r="F16">
-        <v>0.005876868931333132</v>
+        <v>0.002549576647186478</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Kcnj3/Gnai1/Adcy3/Gngt2/Adcy4/Adcy7/Gng11/Gng2/Gnb5/Gnb4/Gabbr1</t>
+          <t>Gngt2/Pik3r6/Plcb1/Gng11/Gng2/Plcb2/Akt3/Gnb5/Gng7/Gnb4</t>
         </is>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Platelet activation, signaling and aggregation</t>
+          <t>GABA receptor activation</t>
         </is>
       </c>
       <c r="B17">
-        <v>0.1440329218106996</v>
+        <v>0.2456140350877193</v>
       </c>
       <c r="C17">
-        <v>0.0002002665044911232</v>
+        <v>6.997825970502459e-05</v>
       </c>
       <c r="D17">
-        <v>0.008799209541078726</v>
+        <v>0.003092164350715774</v>
       </c>
       <c r="E17">
-        <v>2.055556340050591</v>
+        <v>2.509737431082281</v>
       </c>
       <c r="F17">
-        <v>0.007509993918417121</v>
+        <v>0.002624184738938422</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hgf/Cd109/Igf1/Pcdh7/Gnai1/Fn1/Gngt2/Pik3r6/Rasgrp2/Trpc6/Maged2/Islr/Gng11/Dgkb/Vegfc/Pecam1/Igf2/Gng2/Pros1/Arrb1/Sccpdh/Arrb2/Fyn/Tor4a/Habp4/Gnb5/Fam3c/Selenop/Gnb4/Apbb1ip/Lat/Lcp2/Lhfpl2/F2r/Plek</t>
+          <t>Kcnj3/Gnai1/Adcy3/Gngt2/Adcy4/Adcy7/Gabra4/Gng11/Gng2/Gnb5/Gng7/Arhgef9/Gnb4/Gabbr1</t>
         </is>
       </c>
       <c r="H17">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GABA receptor activation</t>
+          <t>Presynaptic function of Kainate receptors</t>
         </is>
       </c>
       <c r="B18">
-        <v>0.2321428571428572</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C18">
-        <v>0.0002447157317641595</v>
+        <v>9.196022191676093e-05</v>
       </c>
       <c r="D18">
-        <v>0.01011971526060024</v>
+        <v>0.003779180266940181</v>
       </c>
       <c r="E18">
-        <v>1.994831707109837</v>
+        <v>2.422602391737347</v>
       </c>
       <c r="F18">
-        <v>0.008637025826970337</v>
+        <v>0.003207225120458428</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Kcnj3/Gnai1/Adcy3/Gngt2/Adcy4/Adcy7/Gabra4/Gng11/Gng2/Gnb5/Arhgef9/Gnb4/Gabbr1</t>
+          <t>Gngt2/Plcb1/Gng11/Gng2/Plcb2/Gnb5/Gng7/Gnb4</t>
         </is>
       </c>
       <c r="H18">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>G-protein beta:gamma signalling</t>
+          <t>Platelet activation, signaling and aggregation</t>
         </is>
       </c>
       <c r="B19">
-        <v>0.3</v>
+        <v>0.1469387755102041</v>
       </c>
       <c r="C19">
-        <v>0.0002875604434681144</v>
+        <v>9.776865995232487e-05</v>
       </c>
       <c r="D19">
-        <v>0.01112820021770612</v>
+        <v>0.003779180266940181</v>
       </c>
       <c r="E19">
-        <v>1.953575069153437</v>
+        <v>2.422602391737347</v>
       </c>
       <c r="F19">
-        <v>0.009497752675140358</v>
+        <v>0.003207225120458428</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Gngt2/Pik3r6/Plcb1/Gng11/Gng2/Plcb2/Akt3/Gnb5/Gnb4</t>
+          <t>Hgf/Cd109/Igf1/Pcdh7/Gnai1/Fn1/Gngt2/Pik3r6/Rasgrp2/Trpc6/Maged2/Islr/Gng11/Dgkb/Vegfc/Pecam1/Igf2/Gng2/Pros1/Arrb1/Sccpdh/Arrb2/Fyn/Tor4a/Habp4/Gnb5/Fam3c/Gng7/Selenop/Gnb4/Apbb1ip/Lat/Lcp2/Lhfpl2/F2r/Plek</t>
         </is>
       </c>
       <c r="H19">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Potassium Channels</t>
+          <t>Protein-protein interactions at synapses</t>
         </is>
       </c>
       <c r="B20">
-        <v>0.1875</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="C20">
-        <v>0.0003137397707151719</v>
+        <v>0.0001015621288145169</v>
       </c>
       <c r="D20">
-        <v>0.01112820021770612</v>
+        <v>0.003779180266940181</v>
       </c>
       <c r="E20">
-        <v>1.953575069153437</v>
+        <v>2.422602391737347</v>
       </c>
       <c r="F20">
-        <v>0.009497752675140358</v>
+        <v>0.003207225120458428</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Kcnk3/Kcnb2/Kcnj3/Kcna6/Kcnd2/Kcnd3/Kcnq5/Gngt2/Gng11/Kcnma1/Gng2/Kcnc4/Kcng4/Gnb5/Gnb4/Gabbr1/Kcnq4/Kcnh1</t>
+          <t>Gria4/Ptprd/Nlgn1/Epb41l3/Lrrc4b/Grin2b/Shank2/Ppfia2/Slitrk3/Ppfia4/Dlg2/Nlgn3/Lrfn2/Dlg4/Nlgn2</t>
         </is>
       </c>
       <c r="H20">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Generation of second messenger molecules</t>
+          <t>Potassium Channels</t>
         </is>
       </c>
       <c r="B21">
-        <v>0.3684210526315789</v>
+        <v>0.1958762886597938</v>
       </c>
       <c r="C21">
-        <v>0.000337244225453932</v>
+        <v>0.0001105875623896287</v>
       </c>
       <c r="D21">
-        <v>0.01112820021770612</v>
+        <v>0.003909270330473374</v>
       </c>
       <c r="E21">
-        <v>1.953575069153437</v>
+        <v>2.407904296573763</v>
       </c>
       <c r="F21">
-        <v>0.009497752675140358</v>
+        <v>0.00331762687168886</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Itk/Cd3g/Zap70/Lat/Lcp2/Grap2/Cd4</t>
+          <t>Kcnk3/Kcnb2/Kcnj3/Kcna6/Kcnd2/Kcnd3/Kcnq5/Gngt2/Gng11/Kcnma1/Gng2/Kcnc4/Kcng4/Gnb5/Gng7/Gnb4/Gabbr1/Kcnq4/Kcnh1</t>
         </is>
       </c>
       <c r="H21">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>G beta:gamma signalling through PLC beta</t>
+          <t>Collagen biosynthesis and modifying enzymes</t>
         </is>
       </c>
       <c r="B22">
-        <v>0.3684210526315789</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="C22">
-        <v>0.000337244225453932</v>
+        <v>0.0001273283885327328</v>
       </c>
       <c r="D22">
-        <v>0.01112820021770612</v>
+        <v>0.004286722413935337</v>
       </c>
       <c r="E22">
-        <v>1.953575069153437</v>
+        <v>2.367874638252671</v>
       </c>
       <c r="F22">
-        <v>0.009497752675140358</v>
+        <v>0.00363795395807808</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Gngt2/Plcb1/Gng11/Gng2/Plcb2/Gnb5/Gnb4</t>
+          <t>Col11a1/Col26a1/P3h3/Col14a1/Col4a6/Col16a1/Col13a1/Col5a2/Col15a1/P3h1/Crtap/Col23a1/Col18a1/Col4a5</t>
         </is>
       </c>
       <c r="H22">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Collagen formation</t>
+          <t>Opioid Signalling</t>
         </is>
       </c>
       <c r="B23">
-        <v>0.2054794520547945</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="C23">
-        <v>0.0003518620852465368</v>
+        <v>0.0002050471879825653</v>
       </c>
       <c r="D23">
-        <v>0.01112820021770612</v>
+        <v>0.006589470995621529</v>
       </c>
       <c r="E23">
-        <v>1.953575069153437</v>
+        <v>2.181149449276122</v>
       </c>
       <c r="F23">
-        <v>0.009497752675140358</v>
+        <v>0.005592196035888144</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Col11a1/Col26a1/P3h3/Col14a1/Col4a6/Col16a1/Col13a1/Loxl3/Col5a2/Col15a1/P3h1/Crtap/Col23a1/Col18a1/Col4a5</t>
+          <t>Gnai1/Pde1b/Adcy3/Gngt2/Plcb1/Adcy4/Adcy7/Gng11/Pde1a/Gng2/Plcb2/Gnb5/Gng7/Gnb4/Prkar1b</t>
         </is>
       </c>
       <c r="H23">
@@ -1065,421 +1065,962 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Cell surface interactions at the vascular wall</t>
+          <t>Activation of kainate receptors upon glutamate binding</t>
         </is>
       </c>
       <c r="B24">
-        <v>0.1910112359550562</v>
+        <v>0.3</v>
       </c>
       <c r="C24">
-        <v>0.0003640805192137137</v>
+        <v>0.0002769617368075949</v>
       </c>
       <c r="D24">
-        <v>0.01112820021770612</v>
+        <v>0.008513562953172592</v>
       </c>
       <c r="E24">
-        <v>1.953575069153437</v>
+        <v>2.069888648250649</v>
       </c>
       <c r="F24">
-        <v>0.009497752675140358</v>
+        <v>0.007225088786285085</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Apob/Angpt1/Itga4/Cd44/Fn1/Jam3/Tek/Procr/Itgal/Esam/Sele/Pecam1/Pros1/Fyn/Cd84/Spn/Jam2</t>
+          <t>Gngt2/Plcb1/Gng11/Gng2/Plcb2/Dlg4/Gnb5/Gng7/Gnb4</t>
         </is>
       </c>
       <c r="H24">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Laminin interactions</t>
+          <t>Generation of second messenger molecules</t>
         </is>
       </c>
       <c r="B25">
-        <v>0.5</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="C25">
-        <v>0.0004767092802711168</v>
+        <v>0.000326986233419733</v>
       </c>
       <c r="D25">
-        <v>0.01363275078518191</v>
+        <v>0.00921646432150988</v>
       </c>
       <c r="E25">
-        <v>1.865416504378801</v>
+        <v>2.03543565380043</v>
       </c>
       <c r="F25">
-        <v>0.01163534917654217</v>
+        <v>0.007821610456726913</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Col4a6/Lama4/Nid1/Nid2/Col4a5</t>
+          <t>Itk/Cd3g/Zap70/Lat/Lcp2/Grap2/Cd4</t>
         </is>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Presynaptic function of Kainate receptors</t>
+          <t>Collagen formation</t>
         </is>
       </c>
       <c r="B26">
-        <v>0.35</v>
+        <v>0.2054794520547945</v>
       </c>
       <c r="C26">
-        <v>0.0004848062156892572</v>
+        <v>0.0003335196998916042</v>
       </c>
       <c r="D26">
-        <v>0.01363275078518191</v>
+        <v>0.00921646432150988</v>
       </c>
       <c r="E26">
-        <v>1.865416504378801</v>
+        <v>2.03543565380043</v>
       </c>
       <c r="F26">
-        <v>0.01163534917654217</v>
+        <v>0.007821610456726913</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Gngt2/Plcb1/Gng11/Gng2/Plcb2/Gnb5/Gnb4</t>
+          <t>Col11a1/Col26a1/P3h3/Col14a1/Col4a6/Col16a1/Col13a1/Loxl3/Col5a2/Col15a1/P3h1/Crtap/Col23a1/Col18a1/Col4a5</t>
         </is>
       </c>
       <c r="H26">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Opioid Signalling</t>
+          <t>Cell surface interactions at the vascular wall</t>
         </is>
       </c>
       <c r="B27">
-        <v>0.2028985507246377</v>
+        <v>0.1910112359550562</v>
       </c>
       <c r="C27">
-        <v>0.0006282540870303542</v>
+        <v>0.0003435064684917557</v>
       </c>
       <c r="D27">
-        <v>0.01638739331222413</v>
+        <v>0.00921646432150988</v>
       </c>
       <c r="E27">
-        <v>1.785490122704646</v>
+        <v>2.03543565380043</v>
       </c>
       <c r="F27">
-        <v>0.01398639543006327</v>
+        <v>0.007821610456726913</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Gnai1/Pde1b/Adcy3/Gngt2/Plcb1/Adcy4/Adcy7/Gng11/Pde1a/Gng2/Plcb2/Gnb5/Gnb4/Prkar1b</t>
+          <t>Apob/Angpt1/Itga4/Cd44/Fn1/Jam3/Tek/Procr/Itgal/Esam/Sele/Pecam1/Pros1/Fyn/Cd84/Spn/Jam2</t>
         </is>
       </c>
       <c r="H27">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sialic acid metabolism</t>
+          <t>Ca2+ pathway</t>
         </is>
       </c>
       <c r="B28">
-        <v>0.2727272727272727</v>
+        <v>0.25</v>
       </c>
       <c r="C28">
-        <v>0.0006293877943528472</v>
+        <v>0.0003519724705527111</v>
       </c>
       <c r="D28">
-        <v>0.01638739331222413</v>
+        <v>0.00921646432150988</v>
       </c>
       <c r="E28">
-        <v>1.785490122704646</v>
+        <v>2.03543565380043</v>
       </c>
       <c r="F28">
-        <v>0.01398639543006327</v>
+        <v>0.007821610456726913</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>St6gal2/St8sia2/St8sia4/Npl/St3gal2/St6galnac4/St8sia6/St6galnac6/St3gal4</t>
+          <t>Lef1/Wnt11/Gngt2/Plcb1/Gng11/Gng2/Plcb2/Fzd2/Gnb5/Gng7/Gnb4</t>
         </is>
       </c>
       <c r="H28">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Collagen chain trimerization</t>
+          <t>G beta:gamma signalling through PI3Kgamma</t>
         </is>
       </c>
       <c r="B29">
-        <v>0.2571428571428571</v>
+        <v>0.32</v>
       </c>
       <c r="C29">
-        <v>0.001003160566904889</v>
+        <v>0.0003715663215159175</v>
       </c>
       <c r="D29">
-        <v>0.02518649566193346</v>
+        <v>0.009382049618276917</v>
       </c>
       <c r="E29">
-        <v>1.598832254119845</v>
+        <v>2.027702274555895</v>
       </c>
       <c r="F29">
-        <v>0.02149629786224762</v>
+        <v>0.007962135461055375</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Col11a1/Col26a1/Col14a1/Col16a1/Col13a1/Col5a2/Col15a1/Col23a1/Col18a1</t>
+          <t>Gngt2/Pik3r6/Gng11/Gng2/Akt3/Gnb5/Gng7/Gnb4</t>
         </is>
       </c>
       <c r="H29">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Activation of kainate receptors upon glutamate binding</t>
+          <t>Laminin interactions</t>
         </is>
       </c>
       <c r="B30">
-        <v>0.2758620689655172</v>
+        <v>0.5</v>
       </c>
       <c r="C30">
-        <v>0.001159463921847309</v>
+        <v>0.000465680080235355</v>
       </c>
       <c r="D30">
-        <v>0.02810700472616062</v>
+        <v>0.01114400742905683</v>
       </c>
       <c r="E30">
-        <v>1.551185433304351</v>
+        <v>1.95295860706531</v>
       </c>
       <c r="F30">
-        <v>0.02398890872787535</v>
+        <v>0.009457432047290101</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Gngt2/Plcb1/Gng11/Gng2/Plcb2/Dlg4/Gnb5/Gnb4</t>
+          <t>Col4a6/Lama4/Nid1/Nid2/Col4a5</t>
         </is>
       </c>
       <c r="H30">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Ca2+ pathway</t>
+          <t>Thrombin signalling through proteinase activated
+receptors (PARs)</t>
         </is>
       </c>
       <c r="B31">
-        <v>0.2325581395348837</v>
+        <v>0.28125</v>
       </c>
       <c r="C31">
-        <v>0.001240149956266859</v>
+        <v>0.000472871602364505</v>
       </c>
       <c r="D31">
-        <v>0.02906084730852005</v>
+        <v>0.01114400742905683</v>
       </c>
       <c r="E31">
-        <v>1.536691727407227</v>
+        <v>1.95295860706531</v>
       </c>
       <c r="F31">
-        <v>0.02480299912533717</v>
+        <v>0.009457432047290101</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lef1/Wnt11/Gngt2/Plcb1/Gng11/Gng2/Plcb2/Fzd2/Gnb5/Gnb4</t>
+          <t>Gngt2/Gng11/Gng2/Arrb1/Arrb2/Gnb5/Gng7/Gnb4/F2r</t>
         </is>
       </c>
       <c r="H31">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>RAC1 GTPase cycle</t>
+          <t>Sialic acid metabolism</t>
         </is>
       </c>
       <c r="B32">
-        <v>0.1481481481481481</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C32">
-        <v>0.001312555072321349</v>
+        <v>0.0006068293646090864</v>
       </c>
       <c r="D32">
-        <v>0.02908042813526912</v>
+        <v>0.01383962454124594</v>
       </c>
       <c r="E32">
-        <v>1.536399203885346</v>
+        <v>1.858875691806782</v>
       </c>
       <c r="F32">
-        <v>0.0248197110685085</v>
+        <v>0.0117450844763049</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Nhs/Mcam/Fermt2/Wasf3/Arhgap45/Arhgef25/Arhgap25/Dock2/Dock10/Abi2/Sh3bp1/Arhgef15/Nckap1l/Arap3/Prex2/Arhgap10/Dlc1/Arhgap31/Ngef/Fgd5/Arhgap15/Cav1/Cyfip2/Pld2</t>
+          <t>St6gal2/St8sia2/St8sia4/Npl/St3gal2/St6galnac4/St8sia6/St6galnac6/St3gal4</t>
         </is>
       </c>
       <c r="H32">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>RHO GTPase cycle</t>
+          <t>Activation of G protein gated Potassium channels</t>
         </is>
       </c>
       <c r="B33">
-        <v>0.1198979591836735</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C33">
-        <v>0.001323717923653787</v>
+        <v>0.0008699377717892176</v>
       </c>
       <c r="D33">
-        <v>0.02908042813526912</v>
+        <v>0.0175727429901422</v>
       </c>
       <c r="E33">
-        <v>1.536399203885346</v>
+        <v>1.755160442687775</v>
       </c>
       <c r="F33">
-        <v>0.0248197110685085</v>
+        <v>0.01491321894495802</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Nhs/Mcam/Plxnb1/Ccdc88a/Pcdh7/Fermt2/Wasf3/Arhgap45/Arhgef25/Akap12/Arhgap25/Dock2/Slitrk3/Myo9a/Plxnd1/Dock10/Abi2/Sh3bp1/Arhgap6/Arhgef15/Nckap1l/Arap3/Prex2/Arhgap10/Dlc1/Arhgef26/Arhgap28/Net1/Pde5a/Fgd1/Dlg5/Arhgap31/Arfgap3/Zap70/Cep97/Ngef/Arhgef9/Fgd5/Arhgap15/Elmo2/Cav1/Cyfip2/Pld2/Wdr6/Fmnl3/Fgd2/Plekhg5</t>
+          <t>Kcnj3/Gngt2/Gng11/Gng2/Gnb5/Gng7/Gnb4/Gabbr1</t>
         </is>
       </c>
       <c r="H33">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Glycosaminoglycan metabolism</t>
+          <t>G protein gated Potassium channels</t>
         </is>
       </c>
       <c r="B34">
-        <v>0.1623931623931624</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C34">
-        <v>0.001373044711502519</v>
+        <v>0.0008699377717892176</v>
       </c>
       <c r="D34">
-        <v>0.02925001309655367</v>
+        <v>0.0175727429901422</v>
       </c>
       <c r="E34">
-        <v>1.533873935128477</v>
+        <v>1.755160442687775</v>
       </c>
       <c r="F34">
-        <v>0.02496444930004581</v>
+        <v>0.01491321894495802</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Gpc6/Chst2/Cd44/Cspg4/Gpc3/B4galt2/Has2/St3gal2/Chst1/Glb1l/Bgn/Dse/Xylt1/St3gal4/Arsb/Abcc5/Gpc2/Lum/Papss2</t>
+          <t>Kcnj3/Gngt2/Gng11/Gng2/Gnb5/Gng7/Gnb4/Gabbr1</t>
         </is>
       </c>
       <c r="H34">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CDC42 GTPase cycle</t>
+          <t>GPER1 signaling</t>
         </is>
       </c>
       <c r="B35">
-        <v>0.1807228915662651</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C35">
-        <v>0.001437542175293723</v>
+        <v>0.0008699377717892176</v>
       </c>
       <c r="D35">
-        <v>0.02972329850680845</v>
+        <v>0.0175727429901422</v>
       </c>
       <c r="E35">
-        <v>1.526902996936488</v>
+        <v>1.755160442687775</v>
       </c>
       <c r="F35">
-        <v>0.02536839132871277</v>
+        <v>0.01491321894495802</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Arhgap45/Arhgef25/Dock10/Arhgef15/Arap3/Prex2/Arhgap10/Dlc1/Arhgef26/Fgd1/Arhgap31/Ngef/Arhgef9/Cav1/Fgd2</t>
+          <t>Fn1/Gngt2/Gng11/Gng2/Gnb5/Gng7/Gnb4/Prkar1b</t>
         </is>
       </c>
       <c r="H35">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>G beta:gamma signalling through PI3Kgamma</t>
+          <t>Inhibition  of voltage gated Ca2+ channels via
+Gbeta/gamma subunits</t>
         </is>
       </c>
       <c r="B36">
-        <v>0.2916666666666667</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C36">
-        <v>0.001651536187547381</v>
+        <v>0.0008699377717892176</v>
       </c>
       <c r="D36">
-        <v>0.03317228399559453</v>
+        <v>0.0175727429901422</v>
       </c>
       <c r="E36">
-        <v>1.479224625178308</v>
+        <v>1.755160442687775</v>
       </c>
       <c r="F36">
-        <v>0.02831204892938368</v>
+        <v>0.01491321894495802</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Gngt2/Pik3r6/Gng11/Gng2/Akt3/Gnb5/Gnb4</t>
+          <t>Kcnj3/Gngt2/Gng11/Gng2/Gnb5/Gng7/Gnb4/Gabbr1</t>
         </is>
       </c>
       <c r="H36">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Thrombin signalling through proteinase activated
-receptors (PARs)</t>
+          <t>ADP signalling through P2Y purinoceptor 12</t>
         </is>
       </c>
       <c r="B37">
-        <v>0.2580645161290323</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="C37">
-        <v>0.001858616096691855</v>
+        <v>0.0009040873698185443</v>
       </c>
       <c r="D37">
-        <v>0.03629464211039929</v>
+        <v>0.01775527140171419</v>
       </c>
       <c r="E37">
-        <v>1.44015748167548</v>
+        <v>1.750672684817393</v>
       </c>
       <c r="F37">
-        <v>0.03097693494486426</v>
+        <v>0.01506812283030907</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Gngt2/Gng11/Gng2/Arrb1/Arrb2/Gnb5/Gnb4/F2r</t>
+          <t>Gnai1/Gngt2/Gng11/Gng2/Gnb5/Gng7/Gnb4</t>
         </is>
       </c>
       <c r="H37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Collagen chain trimerization</t>
+        </is>
+      </c>
+      <c r="B38">
+        <v>0.2571428571428571</v>
+      </c>
+      <c r="C38">
+        <v>0.0009678815629345146</v>
+      </c>
+      <c r="D38">
+        <v>0.01849438554039735</v>
+      </c>
+      <c r="E38">
+        <v>1.732960093158956</v>
+      </c>
+      <c r="F38">
+        <v>0.01569537669623537</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Col11a1/Col26a1/Col14a1/Col16a1/Col13a1/Col5a2/Col15a1/Col23a1/Col18a1</t>
+        </is>
+      </c>
+      <c r="H38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Adrenaline,noradrenaline inhibits insulin secretion</t>
+        </is>
+      </c>
+      <c r="B39">
+        <v>0.3043478260869565</v>
+      </c>
+      <c r="C39">
+        <v>0.001215115047655338</v>
+      </c>
+      <c r="D39">
+        <v>0.02260753522874536</v>
+      </c>
+      <c r="E39">
+        <v>1.64574678373623</v>
+      </c>
+      <c r="F39">
+        <v>0.01918602706824218</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Gnai1/Gngt2/Gng11/Gng2/Gnb5/Gng7/Gnb4</t>
+        </is>
+      </c>
+      <c r="H39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Glycosaminoglycan metabolism</t>
+        </is>
+      </c>
+      <c r="B40">
+        <v>0.1623931623931624</v>
+      </c>
+      <c r="C40">
+        <v>0.001295132399254793</v>
+      </c>
+      <c r="D40">
+        <v>0.02347842580187535</v>
+      </c>
+      <c r="E40">
+        <v>1.62933102533234</v>
+      </c>
+      <c r="F40">
+        <v>0.01992511383468913</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Gpc6/Chst2/Cd44/Cspg4/Gpc3/B4galt2/Has2/St3gal2/Chst1/Glb1l/Bgn/Dse/Xylt1/St3gal4/Arsb/Abcc5/Gpc2/Lum/Papss2</t>
+        </is>
+      </c>
+      <c r="H40">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>RAC1 GTPase cycle</t>
+        </is>
+      </c>
+      <c r="B41">
+        <v>0.147239263803681</v>
+      </c>
+      <c r="C41">
+        <v>0.00133740999044269</v>
+      </c>
+      <c r="D41">
+        <v>0.02363872158107455</v>
+      </c>
+      <c r="E41">
+        <v>1.626376014478512</v>
+      </c>
+      <c r="F41">
+        <v>0.02006114985664035</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Nhs/Mcam/Fermt2/Wasf3/Arhgap45/Arhgef25/Arhgap25/Dock2/Dock10/Abi2/Sh3bp1/Arhgef15/Nckap1l/Arap3/Prex2/Arhgap10/Dlc1/Arhgap31/Ngef/Fgd5/Arhgap15/Cav1/Cyfip2/Pld2</t>
+        </is>
+      </c>
+      <c r="H41">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>RHO GTPase cycle</t>
+        </is>
+      </c>
+      <c r="B42">
+        <v>0.1189873417721519</v>
+      </c>
+      <c r="C42">
+        <v>0.001402342488428562</v>
+      </c>
+      <c r="D42">
+        <v>0.02418185705656081</v>
+      </c>
+      <c r="E42">
+        <v>1.616510350354981</v>
+      </c>
+      <c r="F42">
+        <v>0.02052208519651554</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Nhs/Mcam/Plxnb1/Ccdc88a/Pcdh7/Fermt2/Wasf3/Arhgap45/Arhgef25/Akap12/Arhgap25/Dock2/Slitrk3/Myo9a/Plxnd1/Dock10/Abi2/Sh3bp1/Arhgap6/Arhgef15/Nckap1l/Arap3/Prex2/Arhgap10/Dlc1/Arhgef26/Arhgap28/Net1/Pde5a/Fgd1/Dlg5/Arhgap31/Arfgap3/Zap70/Cep97/Ngef/Arhgef9/Fgd5/Arhgap15/Elmo2/Cav1/Cyfip2/Pld2/Wdr6/Fmnl3/Fgd2/Plekhg5</t>
+        </is>
+      </c>
+      <c r="H42">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>CDC42 GTPase cycle</t>
+        </is>
+      </c>
+      <c r="B43">
+        <v>0.1785714285714286</v>
+      </c>
+      <c r="C43">
+        <v>0.001550476160106605</v>
+      </c>
+      <c r="D43">
+        <v>0.02609968202846118</v>
+      </c>
+      <c r="E43">
+        <v>1.583364783624397</v>
+      </c>
+      <c r="F43">
+        <v>0.02214965943009436</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Arhgap45/Arhgef25/Dock10/Arhgef15/Arap3/Prex2/Arhgap10/Dlc1/Arhgef26/Fgd1/Arhgap31/Ngef/Arhgef9/Cav1/Fgd2</t>
+        </is>
+      </c>
+      <c r="H43">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>G beta:gamma signalling through BTK</t>
+        </is>
+      </c>
+      <c r="B44">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C44">
+        <v>0.001619632235966625</v>
+      </c>
+      <c r="D44">
+        <v>0.02662976722856754</v>
+      </c>
+      <c r="E44">
+        <v>1.574632629722925</v>
+      </c>
+      <c r="F44">
+        <v>0.02259951957162733</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Gngt2/Gng11/Gng2/Gnb5/Gng7/Gnb4</t>
+        </is>
+      </c>
+      <c r="H44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Extra-nuclear estrogen signaling</t>
+        </is>
+      </c>
+      <c r="B45">
+        <v>0.1884057971014493</v>
+      </c>
+      <c r="C45">
+        <v>0.001899161082147505</v>
+      </c>
+      <c r="D45">
+        <v>0.03051606556996105</v>
+      </c>
+      <c r="E45">
+        <v>1.515471460605816</v>
+      </c>
+      <c r="F45">
+        <v>0.02589765112019325</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Nos3/Gnai1/Areg/Mmp2/Gngt2/Gng11/Gng2/Akt3/Gnb5/Gng7/Gnb4/Cav1/S1pr3</t>
+        </is>
+      </c>
+      <c r="H45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Prostacyclin signalling through prostacyclin receptor</t>
+        </is>
+      </c>
+      <c r="B46">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="C46">
+        <v>0.002216238083295963</v>
+      </c>
+      <c r="D46">
+        <v>0.0340626157584836</v>
+      </c>
+      <c r="E46">
+        <v>1.467722004469257</v>
+      </c>
+      <c r="F46">
+        <v>0.02890745326038212</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Gngt2/Gng11/Gng2/Gnb5/Gng7/Gnb4</t>
+        </is>
+      </c>
+      <c r="H46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>G beta:gamma signalling through CDC42</t>
+        </is>
+      </c>
+      <c r="B47">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="C47">
+        <v>0.002216238083295963</v>
+      </c>
+      <c r="D47">
+        <v>0.0340626157584836</v>
+      </c>
+      <c r="E47">
+        <v>1.467722004469257</v>
+      </c>
+      <c r="F47">
+        <v>0.02890745326038212</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Gngt2/Gng11/Gng2/Gnb5/Gng7/Gnb4</t>
+        </is>
+      </c>
+      <c r="H47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>G-protein mediated events</t>
+        </is>
+      </c>
+      <c r="B48">
+        <v>0.225</v>
+      </c>
+      <c r="C48">
+        <v>0.002658423369323131</v>
+      </c>
+      <c r="D48">
+        <v>0.03915636087732195</v>
+      </c>
+      <c r="E48">
+        <v>1.407197677551686</v>
+      </c>
+      <c r="F48">
+        <v>0.03323029211653914</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Gnai1/Pde1b/Adcy3/Plcb1/Adcy4/Adcy7/Pde1a/Plcb2/Prkar1b</t>
+        </is>
+      </c>
+      <c r="H48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Voltage gated Potassium channels</t>
+        </is>
+      </c>
+      <c r="B49">
+        <v>0.225</v>
+      </c>
+      <c r="C49">
+        <v>0.002658423369323131</v>
+      </c>
+      <c r="D49">
+        <v>0.03915636087732195</v>
+      </c>
+      <c r="E49">
+        <v>1.407197677551686</v>
+      </c>
+      <c r="F49">
+        <v>0.03323029211653914</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Kcnb2/Kcna6/Kcnd2/Kcnd3/Kcnq5/Kcnc4/Kcng4/Kcnq4/Kcnh1</t>
+        </is>
+      </c>
+      <c r="H49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Glucagon-type ligand receptors</t>
+        </is>
+      </c>
+      <c r="B50">
+        <v>0.2424242424242424</v>
+      </c>
+      <c r="C50">
+        <v>0.002765946475650208</v>
+      </c>
+      <c r="D50">
+        <v>0.03940625496677551</v>
+      </c>
+      <c r="E50">
+        <v>1.404434837008222</v>
+      </c>
+      <c r="F50">
+        <v>0.03344236630843749</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Vipr2/Gngt2/Gng11/Gng2/Adcyap1r1/Gnb5/Gng7/Gnb4</t>
+        </is>
+      </c>
+      <c r="H50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Muscle contraction</t>
+        </is>
+      </c>
+      <c r="B51">
+        <v>0.1437908496732026</v>
+      </c>
+      <c r="C51">
+        <v>0.002825390156693175</v>
+      </c>
+      <c r="D51">
+        <v>0.03940625496677551</v>
+      </c>
+      <c r="E51">
+        <v>1.404434837008222</v>
+      </c>
+      <c r="F51">
+        <v>0.03344236630843749</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Kcnk3/Cacna1c/Kcnd2/Ryr1/Kcnd3/Slc8a1/Tmod2/Gucy1a2/Itga1/Slc8a3/Gucy1b1/Gucy1a1/Mme/Myl3/Cacng7/Kcnip3/Asph/Pde5a/Ryr3/Atp2b4/Atp1a2/Sri</t>
+        </is>
+      </c>
+      <c r="H51">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Platelet degranulation </t>
+        </is>
+      </c>
+      <c r="B52">
+        <v>0.1551724137931035</v>
+      </c>
+      <c r="C52">
+        <v>0.002884808337199864</v>
+      </c>
+      <c r="D52">
+        <v>0.03940625496677551</v>
+      </c>
+      <c r="E52">
+        <v>1.404434837008222</v>
+      </c>
+      <c r="F52">
+        <v>0.03344236630843749</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Hgf/Cd109/Igf1/Pcdh7/Fn1/Maged2/Islr/Vegfc/Pecam1/Igf2/Pros1/Sccpdh/Tor4a/Habp4/Fam3c/Selenop/Lhfpl2/Plek</t>
+        </is>
+      </c>
+      <c r="H52">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Cell junction organization</t>
+        </is>
+      </c>
+      <c r="B53">
+        <v>0.1875</v>
+      </c>
+      <c r="C53">
+        <v>0.002922709705768106</v>
+      </c>
+      <c r="D53">
+        <v>0.03940625496677551</v>
+      </c>
+      <c r="E53">
+        <v>1.404434837008222</v>
+      </c>
+      <c r="F53">
+        <v>0.03344236630843749</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Sdk2/Fermt2/Cdh2/Cdh6/Cdh13/Cdh10/Cdh5/Cdh11/Pard6g/Parvb/Flnc/Itgb4</t>
+        </is>
+      </c>
+      <c r="H53">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Class B/2 (Secretin family receptors)</t>
+        </is>
+      </c>
+      <c r="B54">
+        <v>0.1964285714285714</v>
+      </c>
+      <c r="C54">
+        <v>0.002954075690578645</v>
+      </c>
+      <c r="D54">
+        <v>0.03940625496677551</v>
+      </c>
+      <c r="E54">
+        <v>1.404434837008222</v>
+      </c>
+      <c r="F54">
+        <v>0.03344236630843749</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Vipr2/Gngt2/Calca/Pth1r/Gng11/Gng2/Adcyap1r1/Calcrl/Gnb5/Gng7/Gnb4</t>
+        </is>
+      </c>
+      <c r="H54">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Inwardly rectifying K+ channels</t>
+        </is>
+      </c>
+      <c r="B55">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="C55">
+        <v>0.003379995341313152</v>
+      </c>
+      <c r="D55">
+        <v>0.04425290196867405</v>
+      </c>
+      <c r="E55">
+        <v>1.354058244341132</v>
+      </c>
+      <c r="F55">
+        <v>0.03755550379236836</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Kcnj3/Gngt2/Gng11/Gng2/Gnb5/Gng7/Gnb4/Gabbr1</t>
+        </is>
+      </c>
+      <c r="H55">
         <v>8</v>
       </c>
     </row>
@@ -1490,7 +2031,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1545,27 +2086,27 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.161993769470405</v>
+        <v>0.1640866873065016</v>
       </c>
       <c r="C2">
-        <v>1.41086707591447e-09</v>
+        <v>5.131523357764923e-10</v>
       </c>
       <c r="D2">
-        <v>9.382266054831225e-07</v>
+        <v>3.432989126344733e-07</v>
       </c>
       <c r="E2">
-        <v>6.027692255837082</v>
+        <v>6.46432757215711</v>
       </c>
       <c r="F2">
-        <v>7.930558089877127e-07</v>
+        <v>2.895259494486315e-07</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Kcnk3/Kcnb2/Syn2/Kcnj3/Slc1a3/Gria4/Kcna6/Kcnd2/Ptprd/Kcnd3/Nlgn1/Epb41l3/Lrrc7/Abat/Gnai1/Lrrc4b/Kcnq5/Grin2b/Adcy3/Maoa/Shank2/Gngt2/Ppfia2/Plcb1/Slitrk3/Rps6ka2/Glrb/Gabra4/Dlg2/Adcy4/Ppfia4/Gng11/Nlgn3/Lin7a/Adcy7/Tspan7/Kcnma1/Kcnc4/Gjc1/Gng2/Plcb2/Lrfn2/Kcng4/Slc38a1/Dlg4/Gnb5/Arhgef9/Gnb4/Kcnq4/Gabbr1/Cacna1a/Cacnb4</t>
+          <t>Kcnk3/Kcnb2/Syn2/Kcnj3/Slc1a3/Gria4/Kcna6/Kcnd2/Ptprd/Kcnd3/Nlgn1/Epb41l3/Lrrc7/Abat/Gnai1/Lrrc4b/Kcnq5/Grin2b/Adcy3/Maoa/Shank2/Gngt2/Ppfia2/Plcb1/Slitrk3/Rps6ka2/Glrb/Gabra4/Dlg2/Adcy4/Ppfia4/Gng11/Nlgn3/Lin7a/Adcy7/Tspan7/Kcnma1/Kcnc4/Gjc1/Gng2/Plcb2/Lrfn2/Kcng4/Slc38a1/Dlg4/Gng7/Gnb5/Arhgef9/Gnb4/Kcnq4/Gabbr1/Cacna1a/Cacnb4</t>
         </is>
       </c>
       <c r="H2">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -1578,16 +2119,16 @@
         <v>0.1645021645021645</v>
       </c>
       <c r="C3">
-        <v>1.685950587298999e-07</v>
+        <v>1.503896966511749e-07</v>
       </c>
       <c r="D3">
-        <v>5.605785702769172e-05</v>
+        <v>5.030535352981799e-05</v>
       </c>
       <c r="E3">
-        <v>4.251363508410144</v>
+        <v>4.298385794571512</v>
       </c>
       <c r="F3">
-        <v>4.738408492724555e-05</v>
+        <v>4.242572495001565e-05</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -1601,211 +2142,211 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>O-glycosylation of TSR domain-containing proteins</t>
+          <t>Transmission across Chemical Synapses</t>
         </is>
       </c>
       <c r="B4">
-        <v>0.3636363636363636</v>
+        <v>0.1691542288557214</v>
       </c>
       <c r="C4">
-        <v>6.858999978839384e-07</v>
+        <v>3.508985938741287e-07</v>
       </c>
       <c r="D4">
-        <v>0.0001520411661976064</v>
+        <v>7.825038643393069e-05</v>
       </c>
       <c r="E4">
-        <v>3.818038807897907</v>
+        <v>4.106513509044015</v>
       </c>
       <c r="F4">
-        <v>0.0001285159996035169</v>
+        <v>6.599356011106421e-05</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Adamts20/Sema5b/Adamts16/Adamts19/Thsd7b/Thsd1/Adamts1/Adamts10/Adamts7/Adamtsl1/Sbspon/Adamts17</t>
+          <t>Syn2/Kcnj3/Slc1a3/Gria4/Lrrc7/Abat/Gnai1/Grin2b/Adcy3/Maoa/Gngt2/Ppfia2/Plcb1/Rps6ka2/Glrb/Gabra4/Dlg2/Adcy4/Ppfia4/Gng11/Lin7a/Adcy7/Tspan7/Gng2/Plcb2/Slc38a1/Dlg4/Gng7/Gnb5/Arhgef9/Gnb4/Gabbr1/Cacna1a/Cacnb4</t>
         </is>
       </c>
       <c r="H4">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Transmission across Chemical Synapses</t>
+          <t>O-glycosylation of TSR domain-containing proteins</t>
         </is>
       </c>
       <c r="B5">
-        <v>0.1658291457286432</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C5">
-        <v>9.222877905531507e-07</v>
+        <v>6.534428729188628e-07</v>
       </c>
       <c r="D5">
-        <v>0.0001533303451794613</v>
+        <v>0.0001092883204956798</v>
       </c>
       <c r="E5">
-        <v>3.814371886634064</v>
+        <v>3.96142624807139</v>
       </c>
       <c r="F5">
-        <v>0.0001296057053040481</v>
+        <v>9.216983681171328e-05</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Syn2/Kcnj3/Slc1a3/Gria4/Lrrc7/Abat/Gnai1/Grin2b/Adcy3/Maoa/Gngt2/Ppfia2/Plcb1/Rps6ka2/Glrb/Gabra4/Dlg2/Adcy4/Ppfia4/Gng11/Lin7a/Adcy7/Tspan7/Gng2/Plcb2/Slc38a1/Dlg4/Gnb5/Arhgef9/Gnb4/Gabbr1/Cacna1a/Cacnb4</t>
+          <t>Adamts20/Sema5b/Adamts16/Adamts19/Thsd7b/Thsd1/Adamts1/Adamts10/Adamts7/Adamtsl1/Sbspon/Adamts17</t>
         </is>
       </c>
       <c r="H5">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Hemostasis</t>
+          <t>Platelet homeostasis</t>
         </is>
       </c>
       <c r="B6">
-        <v>0.1226993865030675</v>
+        <v>0.2465753424657534</v>
       </c>
       <c r="C6">
-        <v>2.40596698593667e-06</v>
+        <v>8.750081873461019e-07</v>
       </c>
       <c r="D6">
-        <v>0.0003199936091295772</v>
+        <v>0.0001170760954669085</v>
       </c>
       <c r="E6">
-        <v>3.494858695265954</v>
+        <v>3.93153176988577</v>
       </c>
       <c r="F6">
-        <v>0.0002704813411558278</v>
+        <v>9.873776598263382e-05</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Apob/Hgf/Angpt1/Itga4/Cd109/Igf1/Tfpi/Nos3/Slc8a1/Cd44/Pcdh7/P2rx2/Gnai1/Fn1/Serpine2/Tek/Pde1b/Jam3/Gngt2/Pik3r6/Slc8a3/Rasgrp2/Dock2/Sh2b2/Kif26a/Dock10/Trpc6/Procr/Gng11/Islr/Esam/Itgal/Dgkb/Vegfc/Tubb4a/Pde1a/Maged2/Sele/Kif6/Igf2/Pecam1/Pros1/Gng2/Arrb1/Sccpdh/Pde5a/Cd84/Arrb2/Fyn/Fgr/Atp2b4/Tor4a/Selenop/Gnb5/Lat/Fam3c/Habp4/Apbb1ip/Gnb4/Kif16b</t>
+          <t>Apob/Nos3/Slc8a1/P2rx2/Pde1b/Gngt2/Slc8a3/Trpc6/Gng11/Pde1a/Pecam1/Gng2/Pde5a/Gng7/Fgr/Atp2b4/Gnb5/Gnb4</t>
         </is>
       </c>
       <c r="H6">
-        <v>60</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Platelet homeostasis</t>
+          <t>Hemostasis</t>
         </is>
       </c>
       <c r="B7">
-        <v>0.2394366197183098</v>
+        <v>0.1242362525458248</v>
       </c>
       <c r="C7">
-        <v>2.905243559888138e-06</v>
+        <v>1.116348796759207e-06</v>
       </c>
       <c r="D7">
-        <v>0.000321997827887602</v>
+        <v>0.0001244728908386516</v>
       </c>
       <c r="E7">
-        <v>3.492147057930288</v>
+        <v>3.904925223999244</v>
       </c>
       <c r="F7">
-        <v>0.0002721754492947835</v>
+        <v>0.0001049759570285851</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Apob/Nos3/Slc8a1/P2rx2/Pde1b/Gngt2/Slc8a3/Trpc6/Gng11/Pde1a/Pecam1/Gng2/Pde5a/Fgr/Atp2b4/Gnb5/Gnb4</t>
+          <t>Apob/Hgf/Angpt1/Itga4/Cd109/Igf1/Tfpi/Nos3/Slc8a1/Cd44/Pcdh7/P2rx2/Gnai1/Fn1/Serpine2/Tek/Pde1b/Jam3/Gngt2/Pik3r6/Slc8a3/Rasgrp2/Dock2/Sh2b2/Kif26a/Dock10/Trpc6/Procr/Gng11/Islr/Esam/Itgal/Dgkb/Vegfc/Tubb4a/Pde1a/Maged2/Sele/Kif6/Igf2/Pecam1/Pros1/Gng2/Arrb1/Sccpdh/Pde5a/Cd84/Arrb2/Fyn/Gng7/Fgr/Atp2b4/Tor4a/Selenop/Gnb5/Lat/Fam3c/Habp4/Apbb1ip/Gnb4/Kif16b</t>
         </is>
       </c>
       <c r="H7">
-        <v>17</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>O-linked glycosylation</t>
+          <t>G alpha (z) signalling events</t>
         </is>
       </c>
       <c r="B8">
-        <v>0.1979166666666667</v>
+        <v>0.34375</v>
       </c>
       <c r="C8">
-        <v>1.534998929555636e-05</v>
+        <v>3.665760827539234e-06</v>
       </c>
       <c r="D8">
-        <v>0.001458248983077854</v>
+        <v>0.0003503419990891068</v>
       </c>
       <c r="E8">
-        <v>2.836168317756737</v>
+        <v>3.455507796227001</v>
       </c>
       <c r="F8">
-        <v>0.00123261568177851</v>
+        <v>0.0002954658351219593</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Adamts20/Sema5b/Adamts16/Adamts19/Thsd7b/Thsd1/Adamts1/Galnt16/St6galnac4/St3gal2/Adamts10/Adamts7/Galntl6/Adamtsl1/B3gnt5/Sbspon/St3gal4/Large1/Adamts17</t>
+          <t>Rgs16/Adcy3/Gngt2/Adcy4/Gng11/Adcy7/Gng2/Gnaz/Gng7/Gnb5/Gnb4</t>
         </is>
       </c>
       <c r="H8">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>G alpha (z) signalling events</t>
+          <t>GABA B receptor activation</t>
         </is>
       </c>
       <c r="B9">
-        <v>0.3225806451612903</v>
+        <v>0.2926829268292683</v>
       </c>
       <c r="C9">
-        <v>2.022981505684655e-05</v>
+        <v>8.885843435743145e-06</v>
       </c>
       <c r="D9">
-        <v>0.001612335993792137</v>
+        <v>0.0006605143620569071</v>
       </c>
       <c r="E9">
-        <v>2.792544450716596</v>
+        <v>3.180117734757628</v>
       </c>
       <c r="F9">
-        <v>0.001362860974570639</v>
+        <v>0.0005570540446267048</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Rgs16/Adcy3/Gngt2/Adcy4/Gng11/Adcy7/Gng2/Gnaz/Gnb5/Gnb4</t>
+          <t>Kcnj3/Gnai1/Adcy3/Gngt2/Adcy4/Gng11/Adcy7/Gng2/Gng7/Gnb5/Gnb4/Gabbr1</t>
         </is>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Integrin cell surface interactions</t>
+          <t>Activation of GABAB receptors</t>
         </is>
       </c>
       <c r="B10">
-        <v>0.2272727272727273</v>
+        <v>0.2926829268292683</v>
       </c>
       <c r="C10">
-        <v>2.182108863778832e-05</v>
+        <v>8.885843435743145e-06</v>
       </c>
       <c r="D10">
-        <v>0.001612335993792137</v>
+        <v>0.0006605143620569071</v>
       </c>
       <c r="E10">
-        <v>2.792544450716596</v>
+        <v>3.180117734757628</v>
       </c>
       <c r="F10">
-        <v>0.001362860974570639</v>
+        <v>0.0005570540446267048</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Itga4/Col4a6/Cd44/Itgb7/Fn1/Col16a1/Icam1/Jam3/Itga1/Col13a1/Itgal/Pecam1/Col5a2/Col18a1/Itga8</t>
+          <t>Kcnj3/Gnai1/Adcy3/Gngt2/Adcy4/Gng11/Adcy7/Gng2/Gng7/Gnb5/Gnb4/Gabbr1</t>
         </is>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -1816,743 +2357,744 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.1691176470588235</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="C11">
-        <v>3.01578252543099e-05</v>
+        <v>1.160840820068743e-05</v>
       </c>
       <c r="D11">
-        <v>0.002005495379411608</v>
+        <v>0.0007766025086259888</v>
       </c>
       <c r="E11">
-        <v>2.697778334279868</v>
+        <v>3.109801210904748</v>
       </c>
       <c r="F11">
-        <v>0.001695187230084367</v>
+        <v>0.0006549586100598379</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Kcnj3/Gria4/Lrrc7/Gnai1/Grin2b/Adcy3/Gngt2/Plcb1/Rps6ka2/Glrb/Gabra4/Dlg2/Adcy4/Gng11/Adcy7/Tspan7/Gng2/Plcb2/Dlg4/Gnb5/Arhgef9/Gnb4/Gabbr1</t>
+          <t>Kcnj3/Gria4/Lrrc7/Gnai1/Grin2b/Adcy3/Gngt2/Plcb1/Rps6ka2/Glrb/Gabra4/Dlg2/Adcy4/Gng11/Adcy7/Tspan7/Gng2/Plcb2/Dlg4/Gng7/Gnb5/Arhgef9/Gnb4/Gabbr1</t>
         </is>
       </c>
       <c r="H11">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GABA B receptor activation</t>
+          <t>O-linked glycosylation</t>
         </is>
       </c>
       <c r="B12">
-        <v>0.275</v>
+        <v>0.1979166666666667</v>
       </c>
       <c r="C12">
-        <v>4.198371194361132e-05</v>
+        <v>1.440454549515966e-05</v>
       </c>
       <c r="D12">
-        <v>0.002326597370208461</v>
+        <v>0.0008450443057233897</v>
       </c>
       <c r="E12">
-        <v>2.633278767132716</v>
+        <v>3.073120520367759</v>
       </c>
       <c r="F12">
-        <v>0.001966605454200741</v>
+        <v>0.0007126799588824434</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Kcnj3/Gnai1/Adcy3/Gngt2/Adcy4/Gng11/Adcy7/Gng2/Gnb5/Gnb4/Gabbr1</t>
+          <t>Adamts20/Sema5b/Adamts16/Adamts19/Thsd7b/Thsd1/Adamts1/Galnt16/St6galnac4/St3gal2/Adamts10/Adamts7/Galntl6/Adamtsl1/B3gnt5/Sbspon/St3gal4/Large1/Adamts17</t>
         </is>
       </c>
       <c r="H12">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Activation of GABAB receptors</t>
+          <t>GABA receptor activation</t>
         </is>
       </c>
       <c r="B13">
-        <v>0.275</v>
+        <v>0.2456140350877193</v>
       </c>
       <c r="C13">
-        <v>4.198371194361132e-05</v>
+        <v>1.515774539414152e-05</v>
       </c>
       <c r="D13">
-        <v>0.002326597370208461</v>
+        <v>0.0008450443057233897</v>
       </c>
       <c r="E13">
-        <v>2.633278767132716</v>
+        <v>3.073120520367759</v>
       </c>
       <c r="F13">
-        <v>0.001966605454200741</v>
+        <v>0.0007126799588824434</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Kcnj3/Gnai1/Adcy3/Gngt2/Adcy4/Gng11/Adcy7/Gng2/Gnb5/Gnb4/Gabbr1</t>
+          <t>Kcnj3/Gnai1/Adcy3/Gngt2/Gabra4/Adcy4/Gng11/Adcy7/Gng2/Gng7/Gnb5/Arhgef9/Gnb4/Gabbr1</t>
         </is>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GABA receptor activation</t>
+          <t>G-protein beta:gamma signalling</t>
         </is>
       </c>
       <c r="B14">
-        <v>0.2321428571428572</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="C14">
-        <v>6.064210487781627e-05</v>
+        <v>1.944580188066601e-05</v>
       </c>
       <c r="D14">
-        <v>0.003102076903365217</v>
+        <v>0.0009886330491944886</v>
       </c>
       <c r="E14">
-        <v>2.508347439825716</v>
+        <v>3.004964875523139</v>
       </c>
       <c r="F14">
-        <v>0.002622095870830275</v>
+        <v>0.0008337775381453008</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Kcnj3/Gnai1/Adcy3/Gngt2/Gabra4/Adcy4/Gng11/Adcy7/Gng2/Gnb5/Arhgef9/Gnb4/Gabbr1</t>
+          <t>Gngt2/Pik3r6/Plcb1/Gng11/Gng2/Plcb2/Gng7/Akt3/Gnb5/Gnb4</t>
         </is>
       </c>
       <c r="H14">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Protein-protein interactions at synapses</t>
+          <t>Integrin cell surface interactions</t>
         </is>
       </c>
       <c r="B15">
-        <v>0.2121212121212121</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="C15">
-        <v>9.172712140113159e-05</v>
+        <v>2.068888294278451e-05</v>
       </c>
       <c r="D15">
-        <v>0.00435703826655375</v>
+        <v>0.0009886330491944886</v>
       </c>
       <c r="E15">
-        <v>2.360808625769971</v>
+        <v>3.004964875523139</v>
       </c>
       <c r="F15">
-        <v>0.003682878408135659</v>
+        <v>0.0008337775381453008</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Gria4/Ptprd/Nlgn1/Epb41l3/Lrrc4b/Grin2b/Shank2/Ppfia2/Slitrk3/Dlg2/Ppfia4/Nlgn3/Lrfn2/Dlg4</t>
+          <t>Itga4/Col4a6/Cd44/Itgb7/Fn1/Col16a1/Icam1/Jam3/Itga1/Col13a1/Itgal/Pecam1/Col5a2/Col18a1/Itga8</t>
         </is>
       </c>
       <c r="H15">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>G-protein beta:gamma signalling</t>
+          <t>G beta:gamma signalling through PLC beta</t>
         </is>
       </c>
       <c r="B16">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="C16">
-        <v>0.0001003471467772801</v>
+        <v>2.253308095509008e-05</v>
       </c>
       <c r="D16">
-        <v>0.004448723507126086</v>
+        <v>0.001004975410597018</v>
       </c>
       <c r="E16">
-        <v>2.351764585274855</v>
+        <v>2.997844564285953</v>
       </c>
       <c r="F16">
-        <v>0.003760377289759129</v>
+        <v>0.0008475600976791778</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Gngt2/Pik3r6/Plcb1/Gng11/Gng2/Plcb2/Akt3/Gnb5/Gnb4</t>
+          <t>Gngt2/Plcb1/Gng11/Gng2/Plcb2/Gng7/Gnb5/Gnb4</t>
         </is>
       </c>
       <c r="H16">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Collagen biosynthesis and modifying enzymes</t>
+          <t>Presynaptic function of Kainate receptors</t>
         </is>
       </c>
       <c r="B17">
-        <v>0.2166666666666667</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C17">
-        <v>0.0001294607207085216</v>
+        <v>3.429310367361084e-05</v>
       </c>
       <c r="D17">
-        <v>0.005380711204447931</v>
+        <v>0.001433880397352853</v>
       </c>
       <c r="E17">
-        <v>2.269160316944485</v>
+        <v>2.843487072472918</v>
       </c>
       <c r="F17">
-        <v>0.004548159530154642</v>
+        <v>0.001209283129543119</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Col11a1/Col26a1/P3h3/Col14a1/Col4a6/Col16a1/Col13a1/Col5a2/Col15a1/P3h1/Crtap/Col23a1/Col18a1</t>
+          <t>Gngt2/Plcb1/Gng11/Gng2/Plcb2/Gng7/Gnb5/Gnb4</t>
         </is>
       </c>
       <c r="H17">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>G beta:gamma signalling through PLC beta</t>
+          <t>G alpha (12/13) signalling events</t>
         </is>
       </c>
       <c r="B18">
-        <v>0.3684210526315789</v>
+        <v>0.2112676056338028</v>
       </c>
       <c r="C18">
-        <v>0.0001425849435473502</v>
+        <v>5.169863025092561e-05</v>
       </c>
       <c r="D18">
-        <v>0.005577587497587523</v>
+        <v>0.002034493155168778</v>
       </c>
       <c r="E18">
-        <v>2.253553608059565</v>
+        <v>2.691543766944847</v>
       </c>
       <c r="F18">
-        <v>0.004714573365590404</v>
+        <v>0.001715818316687067</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Gngt2/Plcb1/Gng11/Gng2/Plcb2/Gnb5/Gnb4</t>
+          <t>Plxnb1/Adra1a/Arhgef25/Gngt2/Gng11/Arhgef15/Gng2/Arhgef26/Net1/Fgd1/Gng7/Gnb5/Ngef/Arhgef9/Gnb4</t>
         </is>
       </c>
       <c r="H18">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>G alpha (12/13) signalling events</t>
+          <t>Potassium Channels</t>
         </is>
       </c>
       <c r="B19">
-        <v>0.2</v>
+        <v>0.1855670103092784</v>
       </c>
       <c r="C19">
-        <v>0.0001786719152610688</v>
+        <v>5.944934187097256e-05</v>
       </c>
       <c r="D19">
-        <v>0.006380419172786429</v>
+        <v>0.002209533872871147</v>
       </c>
       <c r="E19">
-        <v>2.195150788606719</v>
+        <v>2.655699336175341</v>
       </c>
       <c r="F19">
-        <v>0.005393183756656832</v>
+        <v>0.001863441359230485</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Plxnb1/Adra1a/Arhgef25/Gngt2/Gng11/Arhgef15/Gng2/Arhgef26/Net1/Fgd1/Gnb5/Ngef/Arhgef9/Gnb4</t>
+          <t>Kcnk3/Kcnb2/Kcnj3/Kcna6/Kcnd2/Kcnd3/Kcnq5/Gngt2/Gng11/Kcnma1/Kcnc4/Gng2/Kcng4/Gng7/Gnb5/Gnb4/Kcnq4/Gabbr1</t>
         </is>
       </c>
       <c r="H19">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Potassium Channels</t>
+          <t>Protein-protein interactions at synapses</t>
         </is>
       </c>
       <c r="B20">
-        <v>0.1770833333333333</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="C20">
-        <v>0.0001822976906510408</v>
+        <v>8.737920989581913e-05</v>
       </c>
       <c r="D20">
-        <v>0.006380419172786429</v>
+        <v>0.003076667969489631</v>
       </c>
       <c r="E20">
-        <v>2.195150788606719</v>
+        <v>2.511919369790596</v>
       </c>
       <c r="F20">
-        <v>0.005393183756656832</v>
+        <v>0.002594751052861998</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Kcnk3/Kcnb2/Kcnj3/Kcna6/Kcnd2/Kcnd3/Kcnq5/Gngt2/Gng11/Kcnma1/Kcnc4/Gng2/Kcng4/Gnb5/Gnb4/Kcnq4/Gabbr1</t>
+          <t>Gria4/Ptprd/Nlgn1/Epb41l3/Lrrc4b/Grin2b/Shank2/Ppfia2/Slitrk3/Dlg2/Ppfia4/Nlgn3/Lrfn2/Dlg4</t>
         </is>
       </c>
       <c r="H20">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Presynaptic function of Kainate receptors</t>
+          <t>Activation of kainate receptors upon glutamate binding</t>
         </is>
       </c>
       <c r="B21">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="C21">
-        <v>0.0002068201394054654</v>
+        <v>9.68896811219041e-05</v>
       </c>
       <c r="D21">
-        <v>0.006876769635231725</v>
+        <v>0.003240959833527692</v>
       </c>
       <c r="E21">
-        <v>2.162615523836455</v>
+        <v>2.489326351314404</v>
       </c>
       <c r="F21">
-        <v>0.005812734444343081</v>
+        <v>0.002733308899017926</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Gngt2/Plcb1/Gng11/Gng2/Plcb2/Gnb5/Gnb4</t>
+          <t>Gngt2/Plcb1/Gng11/Gng2/Plcb2/Dlg4/Gng7/Gnb5/Gnb4</t>
         </is>
       </c>
       <c r="H21">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sialic acid metabolism</t>
+          <t>Ca2+ pathway</t>
         </is>
       </c>
       <c r="B22">
-        <v>0.2727272727272727</v>
+        <v>0.25</v>
       </c>
       <c r="C22">
-        <v>0.0002257595329475136</v>
+        <v>0.0001046697926474734</v>
       </c>
       <c r="D22">
-        <v>0.007149051876671263</v>
+        <v>0.003334480537198081</v>
       </c>
       <c r="E22">
-        <v>2.145751551490277</v>
+        <v>2.476971813141758</v>
       </c>
       <c r="F22">
-        <v>0.006042886746565025</v>
+        <v>0.002812180895190263</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>St6gal2/St8sia2/St8sia4/Npl/St6galnac4/St3gal2/St8sia6/St6galnac6/St3gal4</t>
+          <t>Lef1/Wnt11/Gngt2/Plcb1/Gng11/Gng2/Plcb2/Fzd2/Gng7/Gnb5/Gnb4</t>
         </is>
       </c>
       <c r="H22">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Collagen formation</t>
+          <t>Collagen biosynthesis and modifying enzymes</t>
         </is>
       </c>
       <c r="B23">
-        <v>0.1917808219178082</v>
+        <v>0.2166666666666667</v>
       </c>
       <c r="C23">
-        <v>0.0002838579346332849</v>
+        <v>0.0001236964945827703</v>
       </c>
       <c r="D23">
-        <v>0.008580251205960657</v>
+        <v>0.003761497948903335</v>
       </c>
       <c r="E23">
-        <v>2.066499997027112</v>
+        <v>2.424639170659949</v>
       </c>
       <c r="F23">
-        <v>0.007252638138477234</v>
+        <v>0.003172312014180139</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Col11a1/Col26a1/P3h3/Col14a1/Col4a6/Col16a1/Col13a1/Loxl3/Col5a2/Col15a1/P3h1/Crtap/Col23a1/Col18a1</t>
+          <t>Col11a1/Col26a1/P3h3/Col14a1/Col4a6/Col16a1/Col13a1/Col5a2/Col15a1/P3h1/Crtap/Col23a1/Col18a1</t>
         </is>
       </c>
       <c r="H23">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Platelet activation, signaling and aggregation</t>
+          <t>G beta:gamma signalling through PI3Kgamma</t>
         </is>
       </c>
       <c r="B24">
-        <v>0.1275720164609054</v>
+        <v>0.32</v>
       </c>
       <c r="C24">
-        <v>0.0003594225593683512</v>
+        <v>0.0001436719002683775</v>
       </c>
       <c r="D24">
-        <v>0.01015397106478747</v>
+        <v>0.004178978316501936</v>
       </c>
       <c r="E24">
-        <v>1.993364078514734</v>
+        <v>2.378929882277764</v>
       </c>
       <c r="F24">
-        <v>0.0085828580112331</v>
+        <v>0.003524399933356994</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hgf/Cd109/Igf1/Pcdh7/Gnai1/Fn1/Gngt2/Pik3r6/Rasgrp2/Trpc6/Gng11/Islr/Dgkb/Vegfc/Maged2/Igf2/Pecam1/Pros1/Gng2/Arrb1/Sccpdh/Arrb2/Fyn/Tor4a/Selenop/Gnb5/Lat/Fam3c/Habp4/Apbb1ip/Gnb4</t>
+          <t>Gngt2/Pik3r6/Gng11/Gng2/Gng7/Akt3/Gnb5/Gnb4</t>
         </is>
       </c>
       <c r="H24">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Collagen chain trimerization</t>
+          <t>Opioid Signalling</t>
         </is>
       </c>
       <c r="B25">
-        <v>0.2571428571428571</v>
+        <v>0.2</v>
       </c>
       <c r="C25">
-        <v>0.000366459106097593</v>
+        <v>0.0001703954607390814</v>
       </c>
       <c r="D25">
-        <v>0.01015397106478747</v>
+        <v>0.004632111538194454</v>
       </c>
       <c r="E25">
-        <v>1.993364078514734</v>
+        <v>2.334220991629679</v>
       </c>
       <c r="F25">
-        <v>0.0085828580112331</v>
+        <v>0.003906556186723668</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Col11a1/Col26a1/Col14a1/Col16a1/Col13a1/Col5a2/Col15a1/Col23a1/Col18a1</t>
+          <t>Gnai1/Pde1b/Adcy3/Gngt2/Plcb1/Adcy4/Gng11/Adcy7/Pde1a/Gng2/Plcb2/Gng7/Gnb5/Gnb4</t>
         </is>
       </c>
       <c r="H25">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Ca2+ pathway</t>
+          <t>Platelet activation, signaling and aggregation</t>
         </is>
       </c>
       <c r="B26">
-        <v>0.2325581395348837</v>
+        <v>0.1306122448979592</v>
       </c>
       <c r="C26">
-        <v>0.0004216041871974303</v>
+        <v>0.0001730983384975506</v>
       </c>
       <c r="D26">
-        <v>0.01121467137945165</v>
+        <v>0.004632111538194454</v>
       </c>
       <c r="E26">
-        <v>1.950213447910865</v>
+        <v>2.334220991629679</v>
       </c>
       <c r="F26">
-        <v>0.009479437303723276</v>
+        <v>0.003906556186723668</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lef1/Wnt11/Gngt2/Plcb1/Gng11/Gng2/Plcb2/Fzd2/Gnb5/Gnb4</t>
+          <t>Hgf/Cd109/Igf1/Pcdh7/Gnai1/Fn1/Gngt2/Pik3r6/Rasgrp2/Trpc6/Gng11/Islr/Dgkb/Vegfc/Maged2/Igf2/Pecam1/Pros1/Gng2/Arrb1/Sccpdh/Arrb2/Fyn/Gng7/Tor4a/Selenop/Gnb5/Lat/Fam3c/Habp4/Apbb1ip/Gnb4</t>
         </is>
       </c>
       <c r="H26">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>RAC1 GTPase cycle</t>
+          <t>Sialic acid metabolism</t>
         </is>
       </c>
       <c r="B27">
-        <v>0.1419753086419753</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C27">
-        <v>0.0004550825303870091</v>
+        <v>0.000218161801590439</v>
       </c>
       <c r="D27">
-        <v>0.01142200993858491</v>
+        <v>0.00561347097169245</v>
       </c>
       <c r="E27">
-        <v>1.942257466280273</v>
+        <v>2.250768518830314</v>
       </c>
       <c r="F27">
-        <v>0.00965469458995543</v>
+        <v>0.004734199419128555</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Nhs/Mcam/Fermt2/Wasf3/Arhgap45/Arhgef25/Arhgap25/Dock2/Dock10/Abi2/Sh3bp1/Arhgef15/Nckap1l/Arap3/Prex2/Arhgap10/Dlc1/Arhgap31/Ngef/Fgd5/Arhgap15/Cav1/Cyfip2</t>
+          <t>St6gal2/St8sia2/St8sia4/Npl/St6galnac4/St3gal2/St8sia6/St6galnac6/St3gal4</t>
         </is>
       </c>
       <c r="H27">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Activation of kainate receptors upon glutamate binding</t>
+          <t>Collagen formation</t>
         </is>
       </c>
       <c r="B28">
-        <v>0.2758620689655172</v>
+        <v>0.1917808219178082</v>
       </c>
       <c r="C28">
-        <v>0.0004637507794613423</v>
+        <v>0.0002709381508252941</v>
       </c>
       <c r="D28">
-        <v>0.01142200993858491</v>
+        <v>0.006713245292671175</v>
       </c>
       <c r="E28">
-        <v>1.942257466280273</v>
+        <v>2.173067484007199</v>
       </c>
       <c r="F28">
-        <v>0.00965469458995543</v>
+        <v>0.005661709506524664</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Gngt2/Plcb1/Gng11/Gng2/Plcb2/Dlg4/Gnb5/Gnb4</t>
+          <t>Col11a1/Col26a1/P3h3/Col14a1/Col4a6/Col16a1/Col13a1/Loxl3/Col5a2/Col15a1/P3h1/Crtap/Col23a1/Col18a1</t>
         </is>
       </c>
       <c r="H28">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Opioid Signalling</t>
+          <t>Activation of G protein gated Potassium channels</t>
         </is>
       </c>
       <c r="B29">
-        <v>0.1884057971014493</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C29">
-        <v>0.0005559031990129656</v>
+        <v>0.0003455631220436084</v>
       </c>
       <c r="D29">
-        <v>0.01320270097655793</v>
+        <v>0.007646481759053324</v>
       </c>
       <c r="E29">
-        <v>1.879337212792638</v>
+        <v>2.116538343158828</v>
       </c>
       <c r="F29">
-        <v>0.0111598612132678</v>
+        <v>0.006448767560148819</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Gnai1/Pde1b/Adcy3/Gngt2/Plcb1/Adcy4/Gng11/Adcy7/Pde1a/Gng2/Plcb2/Gnb5/Gnb4</t>
+          <t>Kcnj3/Gngt2/Gng11/Gng2/Gng7/Gnb5/Gnb4/Gabbr1</t>
         </is>
       </c>
       <c r="H29">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>G beta:gamma signalling through PI3Kgamma</t>
+          <t>G protein gated Potassium channels</t>
         </is>
       </c>
       <c r="B30">
-        <v>0.2916666666666667</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C30">
-        <v>0.0007301078922012702</v>
+        <v>0.0003455631220436084</v>
       </c>
       <c r="D30">
-        <v>0.01644974837842522</v>
+        <v>0.007646481759053324</v>
       </c>
       <c r="E30">
-        <v>1.783840740795905</v>
+        <v>2.116538343158828</v>
       </c>
       <c r="F30">
-        <v>0.01390449645283588</v>
+        <v>0.006448767560148819</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Gngt2/Pik3r6/Gng11/Gng2/Akt3/Gnb5/Gnb4</t>
+          <t>Kcnj3/Gngt2/Gng11/Gng2/Gng7/Gnb5/Gnb4/Gabbr1</t>
         </is>
       </c>
       <c r="H30">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Cell surface interactions at the vascular wall</t>
+          <t>Inhibition  of voltage gated Ca2+ channels via
+Gbeta/gamma subunits</t>
         </is>
       </c>
       <c r="B31">
-        <v>0.1685393258426966</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C31">
-        <v>0.0007420939118086564</v>
+        <v>0.0003455631220436084</v>
       </c>
       <c r="D31">
-        <v>0.01644974837842522</v>
+        <v>0.007646481759053324</v>
       </c>
       <c r="E31">
-        <v>1.783840740795905</v>
+        <v>2.116538343158828</v>
       </c>
       <c r="F31">
-        <v>0.01390449645283588</v>
+        <v>0.006448767560148819</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Apob/Angpt1/Itga4/Cd44/Fn1/Tek/Jam3/Procr/Esam/Itgal/Sele/Pecam1/Pros1/Cd84/Fyn</t>
+          <t>Kcnj3/Gngt2/Gng11/Gng2/Gng7/Gnb5/Gnb4/Gabbr1</t>
         </is>
       </c>
       <c r="H31">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Cell junction organization</t>
+          <t>Collagen chain trimerization</t>
         </is>
       </c>
       <c r="B32">
-        <v>0.1875</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="C32">
-        <v>0.0009405262242105171</v>
+        <v>0.0003543212773253409</v>
       </c>
       <c r="D32">
-        <v>0.02017580448709658</v>
+        <v>0.007646481759053324</v>
       </c>
       <c r="E32">
-        <v>1.695169139265567</v>
+        <v>2.116538343158828</v>
       </c>
       <c r="F32">
-        <v>0.01705402389570174</v>
+        <v>0.006448767560148819</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Sdk2/Fermt2/Cdh2/Cdh6/Cdh13/Cdh10/Cdh5/Cdh11/Pard6g/Parvb/Flnc/Itgb4</t>
+          <t>Col11a1/Col26a1/Col14a1/Col16a1/Col13a1/Col5a2/Col15a1/Col23a1/Col18a1</t>
         </is>
       </c>
       <c r="H32">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CDC42 GTPase cycle</t>
+          <t>ADP signalling through P2Y purinoceptor 12</t>
         </is>
       </c>
       <c r="B33">
-        <v>0.1686746987951807</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="C33">
-        <v>0.001094497108859763</v>
+        <v>0.0003934525473752952</v>
       </c>
       <c r="D33">
-        <v>0.02274501804349194</v>
+        <v>0.008225617318564764</v>
       </c>
       <c r="E33">
-        <v>1.643113714310576</v>
+        <v>2.084831499093994</v>
       </c>
       <c r="F33">
-        <v>0.01922570579378662</v>
+        <v>0.006937189651090731</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Arhgap45/Arhgef25/Dock10/Arhgef15/Arap3/Prex2/Arhgef26/Arhgap10/Dlc1/Fgd1/Arhgap31/Ngef/Arhgef9/Cav1</t>
+          <t>Gnai1/Gngt2/Gng11/Gng2/Gng7/Gnb5/Gnb4</t>
         </is>
       </c>
       <c r="H33">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Muscle contraction</t>
+          <t>RAC1 GTPase cycle</t>
         </is>
       </c>
       <c r="B34">
-        <v>0.1372549019607843</v>
+        <v>0.1411042944785276</v>
       </c>
       <c r="C34">
-        <v>0.001236549079910076</v>
+        <v>0.0004670239865300219</v>
       </c>
       <c r="D34">
-        <v>0.02491833751940001</v>
+        <v>0.009467849908744989</v>
       </c>
       <c r="E34">
-        <v>1.603480935938847</v>
+        <v>2.023748635440938</v>
       </c>
       <c r="F34">
-        <v>0.02106274987789412</v>
+        <v>0.007984843916430359</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Kcnk3/Cacna1c/Kcnd2/Ryr1/Kcnd3/Slc8a1/Tmod2/Gucy1a2/Slc8a3/Itga1/Gucy1b1/Mme/Gucy1a1/Myl3/Cacng7/Kcnip3/Asph/Ryr3/Pde5a/Atp2b4/Atp1a2</t>
+          <t>Nhs/Mcam/Fermt2/Wasf3/Arhgap45/Arhgef25/Arhgap25/Dock2/Dock10/Abi2/Sh3bp1/Arhgef15/Nckap1l/Arap3/Prex2/Arhgap10/Dlc1/Arhgap31/Ngef/Fgd5/Arhgap15/Cav1/Cyfip2</t>
         </is>
       </c>
       <c r="H34">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Activation of G protein gated Potassium channels</t>
+          <t>Adrenaline,noradrenaline inhibits insulin secretion</t>
         </is>
       </c>
       <c r="B35">
-        <v>0.2592592592592592</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="C35">
-        <v>0.001571821289257769</v>
+        <v>0.0005334958553902437</v>
       </c>
       <c r="D35">
-        <v>0.02903503214878934</v>
+        <v>0.01049731550753156</v>
       </c>
       <c r="E35">
-        <v>1.537077688761565</v>
+        <v>1.978921749437352</v>
       </c>
       <c r="F35">
-        <v>0.02454247276209499</v>
+        <v>0.008853058157559462</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Kcnj3/Gngt2/Gng11/Gng2/Gnb5/Gnb4/Gabbr1</t>
+          <t>Gnai1/Gngt2/Gng11/Gng2/Gng7/Gnb5/Gnb4</t>
         </is>
       </c>
       <c r="H35">
@@ -2562,333 +3104,873 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>G protein gated Potassium channels</t>
+          <t>Cell surface interactions at the vascular wall</t>
         </is>
       </c>
       <c r="B36">
-        <v>0.2592592592592592</v>
+        <v>0.1685393258426966</v>
       </c>
       <c r="C36">
-        <v>0.001571821289257769</v>
+        <v>0.0007081883386550744</v>
       </c>
       <c r="D36">
-        <v>0.02903503214878934</v>
+        <v>0.01353651424457842</v>
       </c>
       <c r="E36">
-        <v>1.537077688761565</v>
+        <v>1.868493155388049</v>
       </c>
       <c r="F36">
-        <v>0.02454247276209499</v>
+        <v>0.01141620900809383</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Kcnj3/Gngt2/Gng11/Gng2/Gnb5/Gnb4/Gabbr1</t>
+          <t>Apob/Angpt1/Itga4/Cd44/Fn1/Tek/Jam3/Procr/Esam/Itgal/Sele/Pecam1/Pros1/Cd84/Fyn</t>
         </is>
       </c>
       <c r="H36">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Inhibition  of voltage gated Ca2+ channels via
-Gbeta/gamma subunits</t>
+          <t>G beta:gamma signalling through BTK</t>
         </is>
       </c>
       <c r="B37">
-        <v>0.2592592592592592</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C37">
-        <v>0.001571821289257769</v>
+        <v>0.0007863856504427094</v>
       </c>
       <c r="D37">
-        <v>0.02903503214878934</v>
+        <v>0.01461366667072701</v>
       </c>
       <c r="E37">
-        <v>1.537077688761565</v>
+        <v>1.835240802883431</v>
       </c>
       <c r="F37">
-        <v>0.02454247276209499</v>
+        <v>0.0123246406034296</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Kcnj3/Gngt2/Gng11/Gng2/Gnb5/Gnb4/Gabbr1</t>
+          <t>Gngt2/Gng11/Gng2/Gng7/Gnb5/Gnb4</t>
         </is>
       </c>
       <c r="H37">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Glycosaminoglycan metabolism</t>
+          <t>Cell junction organization</t>
         </is>
       </c>
       <c r="B38">
-        <v>0.1452991452991453</v>
+        <v>0.1875</v>
       </c>
       <c r="C38">
-        <v>0.001889061543598979</v>
+        <v>0.0009038848540148208</v>
       </c>
       <c r="D38">
-        <v>0.03395205206738706</v>
+        <v>0.01625145510658496</v>
       </c>
       <c r="E38">
-        <v>1.469133971763156</v>
+        <v>1.789107747517823</v>
       </c>
       <c r="F38">
-        <v>0.0286986874617882</v>
+        <v>0.01370589243510273</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Gpc6/Chst2/Cd44/Cspg4/Gpc3/B4galt2/Has2/St3gal2/Chst1/Glb1l/Bgn/Xylt1/Dse/St3gal4/Arsb/Gpc2/Abcc5</t>
+          <t>Sdk2/Fermt2/Cdh2/Cdh6/Cdh13/Cdh10/Cdh5/Cdh11/Pard6g/Parvb/Flnc/Itgb4</t>
         </is>
       </c>
       <c r="H38">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ADP signalling through P2Y purinoceptor 12</t>
+          <t>Thrombin signalling through proteinase activated
+receptors (PARs)</t>
         </is>
       </c>
       <c r="B39">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="C39">
-        <v>0.001982101514918674</v>
+        <v>0.0009231020837821052</v>
       </c>
       <c r="D39">
-        <v>0.03468677651107679</v>
+        <v>0.01625145510658496</v>
       </c>
       <c r="E39">
-        <v>1.459836057854658</v>
+        <v>1.789107747517823</v>
       </c>
       <c r="F39">
-        <v>0.02931972878023745</v>
+        <v>0.01370589243510273</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Gnai1/Gngt2/Gng11/Gng2/Gnb5/Gnb4</t>
+          <t>Gngt2/Gng11/Gng2/Arrb1/Arrb2/Gng7/Gnb5/Gnb4</t>
         </is>
       </c>
       <c r="H39">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Adrenaline,noradrenaline inhibits insulin secretion</t>
+          <t>Class B/2 (Secretin family receptors)</t>
         </is>
       </c>
       <c r="B40">
-        <v>0.2727272727272727</v>
+        <v>0.1964285714285714</v>
       </c>
       <c r="C40">
-        <v>0.002573687150080963</v>
+        <v>0.0009805600609980125</v>
       </c>
       <c r="D40">
-        <v>0.04378659569618109</v>
+        <v>0.01682037643096591</v>
       </c>
       <c r="E40">
-        <v>1.35865881885984</v>
+        <v>1.774164289152733</v>
       </c>
       <c r="F40">
-        <v>0.03701154270163942</v>
+        <v>0.01418570020769055</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Gnai1/Gngt2/Gng11/Gng2/Gnb5/Gnb4</t>
+          <t>Vipr2/Gngt2/Calca/Pth1r/Gng11/Adcyap1r1/Gng2/Calcrl/Gng7/Gnb5/Gnb4</t>
         </is>
       </c>
       <c r="H40">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>RHO GTPase cycle</t>
+          <t>Prostacyclin signalling through prostacyclin receptor</t>
         </is>
       </c>
       <c r="B41">
-        <v>0.1045918367346939</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="C41">
-        <v>0.002633780192251494</v>
+        <v>0.001085379977336345</v>
       </c>
       <c r="D41">
-        <v>0.04378659569618109</v>
+        <v>0.01771022450824427</v>
       </c>
       <c r="E41">
-        <v>1.35865881885984</v>
+        <v>1.751775933328637</v>
       </c>
       <c r="F41">
-        <v>0.03701154270163942</v>
+        <v>0.01493616605525754</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Nhs/Mcam/Plxnb1/Ccdc88a/Pcdh7/Fermt2/Wasf3/Arhgap45/Arhgef25/Akap12/Arhgap25/Dock2/Slitrk3/Plxnd1/Dock10/Abi2/Myo9a/Sh3bp1/Arhgef15/Arhgap6/Nckap1l/Arap3/Prex2/Arhgef26/Arhgap10/Arhgap28/Pde5a/Dlc1/Net1/Fgd1/Zap70/Dlg5/Arhgap31/Ngef/Fgd5/Arhgef9/Cep97/Arhgap15/Arfgap3/Cav1/Cyfip2</t>
+          <t>Gngt2/Gng11/Gng2/Gng7/Gnb5/Gnb4</t>
         </is>
       </c>
       <c r="H41">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>G alpha (q) signalling events</t>
+          <t>G beta:gamma signalling through CDC42</t>
         </is>
       </c>
       <c r="B42">
-        <v>0.1218274111675127</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="C42">
-        <v>0.003003298018614702</v>
+        <v>0.001085379977336345</v>
       </c>
       <c r="D42">
-        <v>0.048596734072218</v>
+        <v>0.01771022450824427</v>
       </c>
       <c r="E42">
-        <v>1.313392916377082</v>
+        <v>1.751775933328637</v>
       </c>
       <c r="F42">
-        <v>0.04107741352523057</v>
+        <v>0.01493616605525754</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Adra1a/Rgs16/Ednrb/Lpar4/Arhgef25/Gngt2/Ptgfr/Edn3/Plcb1/Rps6ka2/Trpc6/Gng11/Dgkb/Rgs5/Agtr1a/Ednra/Bdkrb2/Xcl1/Htr2a/Gng2/Plcb2/Gnb5/Prokr1/Gnb4</t>
+          <t>Gngt2/Gng11/Gng2/Gng7/Gnb5/Gnb4</t>
         </is>
       </c>
       <c r="H42">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Class B/2 (Secretin family receptors)</t>
+          <t>Glucagon-type ligand receptors</t>
         </is>
       </c>
       <c r="B43">
-        <v>0.1818181818181818</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="C43">
-        <v>0.003117934771427586</v>
+        <v>0.001148682974083439</v>
       </c>
       <c r="D43">
-        <v>0.048596734072218</v>
+        <v>0.01797612213650481</v>
       </c>
       <c r="E43">
-        <v>1.313392916377082</v>
+        <v>1.745303989819575</v>
       </c>
       <c r="F43">
-        <v>0.04107741352523057</v>
+        <v>0.01516041454671793</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Vipr2/Gngt2/Calca/Pth1r/Gng11/Adcyap1r1/Gng2/Calcrl/Gnb5/Gnb4</t>
+          <t>Vipr2/Gngt2/Gng11/Adcyap1r1/Gng2/Gng7/Gnb5/Gnb4</t>
         </is>
       </c>
       <c r="H43">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Cell-Cell communication</t>
+          <t>Muscle contraction</t>
         </is>
       </c>
       <c r="B44">
-        <v>0.1566265060240964</v>
+        <v>0.1372549019607843</v>
       </c>
       <c r="C44">
-        <v>0.003222354824362857</v>
+        <v>0.001168420885844919</v>
       </c>
       <c r="D44">
-        <v>0.048596734072218</v>
+        <v>0.01797612213650481</v>
       </c>
       <c r="E44">
-        <v>1.313392916377082</v>
+        <v>1.745303989819575</v>
       </c>
       <c r="F44">
-        <v>0.04107741352523057</v>
+        <v>0.01516041454671793</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Sdk2/Fermt2/Cdh2/Cdh6/Cdh13/Cdh10/Cdh5/Cdh11/Pard6g/Parvb/Flnc/Fyn/Itgb4</t>
+          <t>Kcnk3/Cacna1c/Kcnd2/Ryr1/Kcnd3/Slc8a1/Tmod2/Gucy1a2/Slc8a3/Itga1/Gucy1b1/Mme/Gucy1a1/Myl3/Cacng7/Kcnip3/Asph/Ryr3/Pde5a/Atp2b4/Atp1a2</t>
         </is>
       </c>
       <c r="H44">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>CDC42 GTPase cycle</t>
+        </is>
+      </c>
+      <c r="B45">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="C45">
+        <v>0.001182286059800017</v>
+      </c>
+      <c r="D45">
+        <v>0.01797612213650481</v>
+      </c>
+      <c r="E45">
+        <v>1.745303989819575</v>
+      </c>
+      <c r="F45">
+        <v>0.01516041454671793</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Arhgap45/Arhgef25/Dock10/Arhgef15/Arap3/Prex2/Arhgef26/Arhgap10/Dlc1/Fgd1/Arhgap31/Ngef/Arhgef9/Cav1</t>
+        </is>
+      </c>
+      <c r="H45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Inwardly rectifying K+ channels</t>
+        </is>
+      </c>
+      <c r="B46">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="C46">
+        <v>0.001416139969673117</v>
+      </c>
+      <c r="D46">
+        <v>0.02105328088247367</v>
+      </c>
+      <c r="E46">
+        <v>1.676680215356837</v>
+      </c>
+      <c r="F46">
+        <v>0.01775557950280212</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Kcnj3/Gngt2/Gng11/Gng2/Gng7/Gnb5/Gnb4/Gabbr1</t>
+        </is>
+      </c>
+      <c r="H46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>G alpha (q) signalling events</t>
+        </is>
+      </c>
+      <c r="B47">
+        <v>0.125</v>
+      </c>
+      <c r="C47">
+        <v>0.001635047659007936</v>
+      </c>
+      <c r="D47">
+        <v>0.02377928008426759</v>
+      </c>
+      <c r="E47">
+        <v>1.623801297747722</v>
+      </c>
+      <c r="F47">
+        <v>0.02005458913565798</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Adra1a/Rgs16/Ednrb/Lpar4/Arhgef25/Gngt2/Ptgfr/Edn3/Plcb1/Rps6ka2/Trpc6/Gng11/Dgkb/Rgs5/Agtr1a/Ednra/Bdkrb2/Xcl1/Htr2a/Gng2/Plcb2/Gng7/Gnb5/Prokr1/Gnb4</t>
+        </is>
+      </c>
+      <c r="H47">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Extra-nuclear estrogen signaling</t>
+        </is>
+      </c>
+      <c r="B48">
+        <v>0.1739130434782609</v>
+      </c>
+      <c r="C48">
+        <v>0.001790054300083483</v>
+      </c>
+      <c r="D48">
+        <v>0.02508916332533485</v>
+      </c>
+      <c r="E48">
+        <v>1.600513821317868</v>
+      </c>
+      <c r="F48">
+        <v>0.02115929752557546</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Nos3/Gnai1/Areg/Mmp2/Gngt2/Gng11/Gng2/Gng7/Akt3/Gnb5/Gnb4/Cav1</t>
+        </is>
+      </c>
+      <c r="H48">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Glycosaminoglycan metabolism</t>
+        </is>
+      </c>
+      <c r="B49">
+        <v>0.1452991452991453</v>
+      </c>
+      <c r="C49">
+        <v>0.001800119341728061</v>
+      </c>
+      <c r="D49">
+        <v>0.02508916332533485</v>
+      </c>
+      <c r="E49">
+        <v>1.600513821317868</v>
+      </c>
+      <c r="F49">
+        <v>0.02115929752557546</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Gpc6/Chst2/Cd44/Cspg4/Gpc3/B4galt2/Has2/St3gal2/Chst1/Glb1l/Bgn/Xylt1/Dse/St3gal4/Arsb/Gpc2/Abcc5</t>
+        </is>
+      </c>
+      <c r="H49">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>GPER1 signaling</t>
+        </is>
+      </c>
+      <c r="B50">
+        <v>0.25</v>
+      </c>
+      <c r="C50">
+        <v>0.001925867630325383</v>
+      </c>
+      <c r="D50">
+        <v>0.02629398866709554</v>
+      </c>
+      <c r="E50">
+        <v>1.580143528586837</v>
+      </c>
+      <c r="F50">
+        <v>0.02217540386368218</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Fn1/Gngt2/Gng11/Gng2/Gng7/Gnb5/Gnb4</t>
+        </is>
+      </c>
+      <c r="H50">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Regulation of insulin secretion</t>
+        </is>
+      </c>
+      <c r="B51">
+        <v>0.180327868852459</v>
+      </c>
+      <c r="C51">
+        <v>0.002035224932149874</v>
+      </c>
+      <c r="D51">
+        <v>0.02723130959216531</v>
+      </c>
+      <c r="E51">
+        <v>1.564931472322365</v>
+      </c>
+      <c r="F51">
+        <v>0.02296590660278594</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Cacna1c/Gnai1/Gngt2/Plcb1/Gng11/Gng2/Plcb2/Gng7/Gnb5/Gnb4/Cacna1a</t>
+        </is>
+      </c>
+      <c r="H51">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>RHO GTPase cycle</t>
+        </is>
+      </c>
+      <c r="B52">
+        <v>0.1037974683544304</v>
+      </c>
+      <c r="C52">
+        <v>0.002791380377078861</v>
+      </c>
+      <c r="D52">
+        <v>0.03661634259344624</v>
+      </c>
+      <c r="E52">
+        <v>1.436325037172761</v>
+      </c>
+      <c r="F52">
+        <v>0.03088090571959277</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Nhs/Mcam/Plxnb1/Ccdc88a/Pcdh7/Fermt2/Wasf3/Arhgap45/Arhgef25/Akap12/Arhgap25/Dock2/Slitrk3/Plxnd1/Dock10/Abi2/Myo9a/Sh3bp1/Arhgef15/Arhgap6/Nckap1l/Arap3/Prex2/Arhgef26/Arhgap10/Arhgap28/Pde5a/Dlc1/Net1/Fgd1/Zap70/Dlg5/Arhgap31/Ngef/Fgd5/Arhgef9/Cep97/Arhgap15/Arfgap3/Cav1/Cyfip2</t>
+        </is>
+      </c>
+      <c r="H52">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Cell-Cell communication</t>
+        </is>
+      </c>
+      <c r="B53">
+        <v>0.1566265060240964</v>
+      </c>
+      <c r="C53">
+        <v>0.003098664486960053</v>
+      </c>
+      <c r="D53">
+        <v>0.03909757460600545</v>
+      </c>
+      <c r="E53">
+        <v>1.407850182959609</v>
+      </c>
+      <c r="F53">
+        <v>0.03297348751289264</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Sdk2/Fermt2/Cdh2/Cdh6/Cdh13/Cdh10/Cdh5/Cdh11/Pard6g/Parvb/Flnc/Fyn/Itgb4</t>
+        </is>
+      </c>
+      <c r="H53">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
           <t>A tetrasaccharide linker sequence is required for GAG
 synthesis</t>
         </is>
       </c>
-      <c r="B45">
+      <c r="B54">
         <v>0.2608695652173913</v>
       </c>
-      <c r="C45">
-        <v>0.003288500801879413</v>
-      </c>
-      <c r="D45">
-        <v>0.048596734072218</v>
-      </c>
-      <c r="E45">
-        <v>1.313392916377082</v>
-      </c>
-      <c r="F45">
-        <v>0.04107741352523057</v>
-      </c>
-      <c r="G45" t="inlineStr">
+      <c r="C54">
+        <v>0.003214299855501195</v>
+      </c>
+      <c r="D54">
+        <v>0.03909757460600545</v>
+      </c>
+      <c r="E54">
+        <v>1.407850182959609</v>
+      </c>
+      <c r="F54">
+        <v>0.03297348751289264</v>
+      </c>
+      <c r="G54" t="inlineStr">
         <is>
           <t>Gpc6/Cspg4/Gpc3/Bgn/Xylt1/Gpc2</t>
         </is>
       </c>
-      <c r="H45">
+      <c r="H54">
         <v>6</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>G-protein activation</t>
+        </is>
+      </c>
+      <c r="B55">
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="C55">
+        <v>0.003214299855501195</v>
+      </c>
+      <c r="D55">
+        <v>0.03909757460600545</v>
+      </c>
+      <c r="E55">
+        <v>1.407850182959609</v>
+      </c>
+      <c r="F55">
+        <v>0.03297348751289264</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Gngt2/Gng11/Gng2/Gng7/Gnb5/Gnb4</t>
+        </is>
+      </c>
+      <c r="H55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>N-glycan antennae elongation in the medial/trans-Golgi</t>
         </is>
       </c>
-      <c r="B46">
+      <c r="B56">
         <v>0.2608695652173913</v>
       </c>
-      <c r="C46">
-        <v>0.003288500801879413</v>
-      </c>
-      <c r="D46">
-        <v>0.048596734072218</v>
-      </c>
-      <c r="E46">
-        <v>1.313392916377082</v>
-      </c>
-      <c r="F46">
-        <v>0.04107741352523057</v>
-      </c>
-      <c r="G46" t="inlineStr">
+      <c r="C56">
+        <v>0.003214299855501195</v>
+      </c>
+      <c r="D56">
+        <v>0.03909757460600545</v>
+      </c>
+      <c r="E56">
+        <v>1.407850182959609</v>
+      </c>
+      <c r="F56">
+        <v>0.03297348751289264</v>
+      </c>
+      <c r="G56" t="inlineStr">
         <is>
           <t>St8sia2/Man2a2/Chst10/B4galt2/St8sia6/St3gal4</t>
         </is>
       </c>
-      <c r="H46">
+      <c r="H56">
         <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Thromboxane signalling through TP receptor</t>
+        </is>
+      </c>
+      <c r="B57">
+        <v>0.25</v>
+      </c>
+      <c r="C57">
+        <v>0.004048906555602049</v>
+      </c>
+      <c r="D57">
+        <v>0.04701420596144634</v>
+      </c>
+      <c r="E57">
+        <v>1.327770894437392</v>
+      </c>
+      <c r="F57">
+        <v>0.0396500895214149</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Gngt2/Gng11/Gng2/Gng7/Gnb5/Gnb4</t>
+        </is>
+      </c>
+      <c r="H57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Platelet degranulation </t>
+        </is>
+      </c>
+      <c r="B58">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="C58">
+        <v>0.004128189300077835</v>
+      </c>
+      <c r="D58">
+        <v>0.04701420596144634</v>
+      </c>
+      <c r="E58">
+        <v>1.327770894437392</v>
+      </c>
+      <c r="F58">
+        <v>0.0396500895214149</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Hgf/Cd109/Igf1/Pcdh7/Fn1/Islr/Vegfc/Maged2/Igf2/Pecam1/Pros1/Sccpdh/Tor4a/Selenop/Fam3c/Habp4</t>
+        </is>
+      </c>
+      <c r="H58">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>G-protein mediated events</t>
+        </is>
+      </c>
+      <c r="B59">
+        <v>0.2</v>
+      </c>
+      <c r="C59">
+        <v>0.004216520714031061</v>
+      </c>
+      <c r="D59">
+        <v>0.04701420596144634</v>
+      </c>
+      <c r="E59">
+        <v>1.327770894437392</v>
+      </c>
+      <c r="F59">
+        <v>0.0396500895214149</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Gnai1/Pde1b/Adcy3/Plcb1/Adcy4/Adcy7/Pde1a/Plcb2</t>
+        </is>
+      </c>
+      <c r="H59">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Voltage gated Potassium channels</t>
+        </is>
+      </c>
+      <c r="B60">
+        <v>0.2</v>
+      </c>
+      <c r="C60">
+        <v>0.004216520714031061</v>
+      </c>
+      <c r="D60">
+        <v>0.04701420596144634</v>
+      </c>
+      <c r="E60">
+        <v>1.327770894437392</v>
+      </c>
+      <c r="F60">
+        <v>0.0396500895214149</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Kcnb2/Kcna6/Kcnd2/Kcnd3/Kcnq5/Kcnc4/Kcng4/Kcnq4</t>
+        </is>
+      </c>
+      <c r="H60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Cell-cell junction organization</t>
+        </is>
+      </c>
+      <c r="B61">
+        <v>0.2</v>
+      </c>
+      <c r="C61">
+        <v>0.004216520714031061</v>
+      </c>
+      <c r="D61">
+        <v>0.04701420596144634</v>
+      </c>
+      <c r="E61">
+        <v>1.327770894437392</v>
+      </c>
+      <c r="F61">
+        <v>0.0396500895214149</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Sdk2/Cdh2/Cdh6/Cdh13/Cdh10/Cdh5/Cdh11/Pard6g</t>
+        </is>
+      </c>
+      <c r="H61">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Signaling by Hedgehog</t>
+        </is>
+      </c>
+      <c r="B62">
+        <v>0.1304347826086956</v>
+      </c>
+      <c r="C62">
+        <v>0.004468194043381986</v>
+      </c>
+      <c r="D62">
+        <v>0.04900363631184507</v>
+      </c>
+      <c r="E62">
+        <v>1.30977169198018</v>
+      </c>
+      <c r="F62">
+        <v>0.04132790349012502</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Gli1/Ihh/Hhip/Evc2/Evc/Wdr35/Adcy3/Gli3/Ift57/Adcy4/Gpr161/Adcy7/Tubb4a/Dync2h1/Arrb1/Ptch1/Arrb2/Dzip1</t>
+        </is>
+      </c>
+      <c r="H62">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Integration of energy metabolism</t>
+        </is>
+      </c>
+      <c r="B63">
+        <v>0.1558441558441558</v>
+      </c>
+      <c r="C63">
+        <v>0.004595891053130843</v>
+      </c>
+      <c r="D63">
+        <v>0.04913471736119405</v>
+      </c>
+      <c r="E63">
+        <v>1.308611537807273</v>
+      </c>
+      <c r="F63">
+        <v>0.04143845253024941</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Cacna1c/Acacb/Gnai1/Gngt2/Plcb1/Gng11/Gng2/Plcb2/Gng7/Gnb5/Gnb4/Cacna1a</t>
+        </is>
+      </c>
+      <c r="H63">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Degradation of the extracellular matrix</t>
+        </is>
+      </c>
+      <c r="B64">
+        <v>0.1401869158878505</v>
+      </c>
+      <c r="C64">
+        <v>0.004627036164058632</v>
+      </c>
+      <c r="D64">
+        <v>0.04913471736119405</v>
+      </c>
+      <c r="E64">
+        <v>1.308611537807273</v>
+      </c>
+      <c r="F64">
+        <v>0.04143845253024941</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Col11a1/Mmp16/Col26a1/Capn6/Col4a6/Cd44/Fn1/Mmp2/Nid1/Col13a1/Col5a2/Col15a1/Mmp19/Col18a1/Tmprss6</t>
+        </is>
+      </c>
+      <c r="H64">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2953,19 +4035,19 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.06230529595015576</v>
+        <v>0.06191950464396285</v>
       </c>
       <c r="C2">
-        <v>8.07833918060133e-07</v>
+        <v>7.863792216709613e-07</v>
       </c>
       <c r="D2">
-        <v>0.0002601225216153628</v>
+        <v>0.0002532141093780495</v>
       </c>
       <c r="E2">
-        <v>3.584822044613664</v>
+        <v>3.596512098598175</v>
       </c>
       <c r="F2">
-        <v>0.0002227920910860577</v>
+        <v>0.0002168751116608335</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2986,16 +4068,16 @@
         <v>0.1060606060606061</v>
       </c>
       <c r="C3">
-        <v>0.0001512743716125127</v>
+        <v>0.0001439564440245011</v>
       </c>
       <c r="D3">
-        <v>0.02435517382961455</v>
+        <v>0.02317698748794468</v>
       </c>
       <c r="E3">
-        <v>1.613408766401266</v>
+        <v>1.634943013686712</v>
       </c>
       <c r="F3">
-        <v>0.02085993966446228</v>
+        <v>0.01985083596548384</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -3016,16 +4098,16 @@
         <v>0.1515151515151515</v>
       </c>
       <c r="C4">
-        <v>0.0002554182584862073</v>
+        <v>0.0002460862915236846</v>
       </c>
       <c r="D4">
-        <v>0.02580896957149524</v>
+        <v>0.02488583204278273</v>
       </c>
       <c r="E4">
-        <v>1.588229334407969</v>
+        <v>1.604047834303185</v>
       </c>
       <c r="F4">
-        <v>0.02210509979644247</v>
+        <v>0.02131444261264817</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -3046,16 +4128,16 @@
         <v>0.05220883534136546</v>
       </c>
       <c r="C5">
-        <v>0.0004433305191985708</v>
+        <v>0.0004108094381972571</v>
       </c>
       <c r="D5">
-        <v>0.02580896957149524</v>
+        <v>0.02488583204278273</v>
       </c>
       <c r="E5">
-        <v>1.588229334407969</v>
+        <v>1.604047834303185</v>
       </c>
       <c r="F5">
-        <v>0.02210509979644247</v>
+        <v>0.02131444261264817</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -3076,16 +4158,16 @@
         <v>0.052</v>
       </c>
       <c r="C6">
-        <v>0.0004606236292197557</v>
+        <v>0.0004268861954889457</v>
       </c>
       <c r="D6">
-        <v>0.02580896957149524</v>
+        <v>0.02488583204278273</v>
       </c>
       <c r="E6">
-        <v>1.588229334407969</v>
+        <v>1.604047834303185</v>
       </c>
       <c r="F6">
-        <v>0.02210509979644247</v>
+        <v>0.02131444261264817</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -3106,16 +4188,16 @@
         <v>0.07476635514018691</v>
       </c>
       <c r="C7">
-        <v>0.0005832775582080673</v>
+        <v>0.000553270618574702</v>
       </c>
       <c r="D7">
-        <v>0.02580896957149524</v>
+        <v>0.02488583204278273</v>
       </c>
       <c r="E7">
-        <v>1.588229334407969</v>
+        <v>1.604047834303185</v>
       </c>
       <c r="F7">
-        <v>0.02210509979644247</v>
+        <v>0.02131444261264817</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -3136,16 +4218,16 @@
         <v>0.3</v>
       </c>
       <c r="C8">
-        <v>0.0005908182565688798</v>
+        <v>0.0005770798327590168</v>
       </c>
       <c r="D8">
-        <v>0.02580896957149524</v>
+        <v>0.02488583204278273</v>
       </c>
       <c r="E8">
-        <v>1.588229334407969</v>
+        <v>1.604047834303185</v>
       </c>
       <c r="F8">
-        <v>0.02210509979644247</v>
+        <v>0.02131444261264817</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -3166,16 +4248,16 @@
         <v>0.125</v>
       </c>
       <c r="C9">
-        <v>0.0006412166353166519</v>
+        <v>0.0006182815414355958</v>
       </c>
       <c r="D9">
-        <v>0.02580896957149524</v>
+        <v>0.02488583204278273</v>
       </c>
       <c r="E9">
-        <v>1.588229334407969</v>
+        <v>1.604047834303185</v>
       </c>
       <c r="F9">
-        <v>0.02210509979644247</v>
+        <v>0.02131444261264817</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -3196,16 +4278,16 @@
         <v>0.05194805194805195</v>
       </c>
       <c r="C10">
-        <v>0.0007709123042298436</v>
+        <v>0.0007186150213430092</v>
       </c>
       <c r="D10">
-        <v>0.02594724873369778</v>
+        <v>0.02502484090891457</v>
       </c>
       <c r="E10">
-        <v>1.58590868494918</v>
+        <v>1.601628674791706</v>
       </c>
       <c r="F10">
-        <v>0.02222353438453357</v>
+        <v>0.02143350218416351</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -3226,16 +4308,16 @@
         <v>0.119047619047619</v>
       </c>
       <c r="C11">
-        <v>0.0008058151780651484</v>
+        <v>0.0007771689723265394</v>
       </c>
       <c r="D11">
-        <v>0.02594724873369778</v>
+        <v>0.02502484090891457</v>
       </c>
       <c r="E11">
-        <v>1.58590868494918</v>
+        <v>1.601628674791706</v>
       </c>
       <c r="F11">
-        <v>0.02222353438453357</v>
+        <v>0.02143350218416351</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -3256,16 +4338,16 @@
         <v>0.108695652173913</v>
       </c>
       <c r="C12">
-        <v>0.001227060053626075</v>
+        <v>0.001183974547793455</v>
       </c>
       <c r="D12">
-        <v>0.03591939429705419</v>
+        <v>0.0346581640354084</v>
       </c>
       <c r="E12">
-        <v>1.444670995380706</v>
+        <v>1.460194447115752</v>
       </c>
       <c r="F12">
-        <v>0.03076456785167767</v>
+        <v>0.029684337944678</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -3283,19 +4365,19 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.07291666666666667</v>
+        <v>0.07216494845360824</v>
       </c>
       <c r="C13">
-        <v>0.001490939886501005</v>
+        <v>0.001512460514014049</v>
       </c>
       <c r="D13">
-        <v>0.04000688695444363</v>
+        <v>0.04058435712604366</v>
       </c>
       <c r="E13">
-        <v>1.397865240950577</v>
+        <v>1.391641329056814</v>
       </c>
       <c r="F13">
-        <v>0.03426546054940906</v>
+        <v>0.03476005742734043</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
